--- a/data/hotels_by_city/Dallas/Dallas_shard_253.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_253.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="944">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jason W</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Angela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r583419515-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>We stayed here after a friend’s wedding in Weatherford. The front desk was empty and took quite awhile for someone to come. It seemed several staff members were hanging out in a back office. They only came to help us when I looked around the corner and trying to find someone which allowed me to see them hanging out. Maybe a bell on the door or something so they know people are there. Then, housekeeping was knocking on the door at 8 am trying to clean. I understand they do that from time to time but 8 am....on a holiday? Not appreciated. We didn’t have the do not disturb sign up so next time will make sure to place it. Still, wouldn’t think the knocking should start that early regardless. Room was clean. Decent. What you would expect for the price. Nothing spectacular but not bad either. More</t>
   </si>
   <si>
+    <t>Craig C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r579671071-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>G4522IOgarym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r558731466-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>I am a HUGE FAN of Fairfield and/or Courtyard Hotels. I stay in hotels 5 to 8 nights a month and I find Marriott very pleasing. That being said, I was traveling to see my daughter at Fort Bliss and decided to stay at the Fairfield Inn at Weatherford, TX. Hotel was very clean, employees were very friendly no complaints with any of that. The bed however was almost as comfortable as a rock with a sheet draped over it. Could NOT SLEEP at all. I would not recommend this hotel to anyone because of this.More</t>
   </si>
   <si>
+    <t>Carolyn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r550762328-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>We stay at Fairfield Inns and Marriotts on a regular basis because we know what we’re getting and we trust the brand.  We have stayed at this hotel several times and the last time we stayed I wasn’t as pleased as normal, but I couldn’t remember what the problem was, so we stayed here again.  Now I know better.  The hear/air system is not good and really needs an overhaul.  When we checked in, the room was really warm, so we turned the a/c on.  It wasn’t until 3 AM that the room was a comfortable temperature.  Considering it was 22 degrees outside, you wouldn’t think a room that was too hot would be a problem, but it was.  Too bad.  I’ll try some other place next time.More</t>
   </si>
   <si>
+    <t>Ric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r549563981-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>This is a fine place to stop if you are in the Weatherford, TX area. It is all you could want: clean, quiet, and the beds are comfortable. There are many eating places close by. The price is reasonable, and the included breakfast was good. I would be happy to stay here again.More</t>
   </si>
   <si>
+    <t>Mari D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r545768430-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>We stopped here without a reservation and were very pleased.  This place is extremely reasonable for the accommodations.  The bed was extra comfy, it was extremely clean and the breakfast was the best selection of any hotel we've visited.  Would stay and highly recommend!More</t>
   </si>
   <si>
+    <t>LuAnn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r545768083-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>We were in town for a wedding, and this Fairfield was very close to shopping, restaurants, and a block off Interstate 20.  The staff was friendly and accommodating.  I used the treadmill in the exercise room, which didn't have a lot of machines, but for one or two people using the facility, it was adequate.  There were a few people in the pool and hot tub who looked like they were having fun.  Breakfast was good and provided eggs, sausage, oatmeal, the usual breakfast items, plus a waffle iron was provided for waffles.  We were on the top floor which was very quiet. The bathroom was clean and roomy.More</t>
   </si>
   <si>
+    <t>shannondgaylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r544612485-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>Great place to stay when in Weatherford Tx located in the center of strip malls, and eating places namely Waffle House! The room was really nice it had it's own little living area with a separate tv, and couch. The beds were very comfortable as were the pillows. I just love the fact that all Marriott affiliates use Paul Mitchell hair products.The staff worked together as a TEAM to accommodate us in every instance. I was impressed by the indoor pool and spa as well as the fitness area. Laundry room was spacious, and had a Tv with remote to entertain yourself while doing laundry if thats possible to do! Just had a great experience here I believe you will too. Oh by the way the breakfast there was Awesome as well. Cant eat at Waffle House everyday!More</t>
   </si>
   <si>
+    <t>LCHS1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r542510117-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>We recently stayed here for a wedding.  We stayed 2 nights and were very pleased with the room and with the great selection for breakfast.  The only downfall was that we didn't have our own car and were hoping that Fairfield could shuttle us across the highway to the nearby mall.  They did however give us the number for the local taxi.  The pool and hot tub were under repair ~~ so we weren't able to enjoy that.More</t>
   </si>
   <si>
+    <t>grog426</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r534152943-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>I spent two nights in this hotel while traveling to a car show event in Granbury, TX. This Fairfield appears new and above the average Fairfield. The rooms are nice as is the common areas and enclosed pool. There are outside sitting areas (although small) which have a BBQ grill with tables and chairs on the back side of the hotel. I was pleased with the location within easy walking distance from several good restaurants. The staff was helpful and very nice...a good choice  for my weekend that I expect to visit again.More</t>
   </si>
   <si>
+    <t>rda2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r526513918-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -429,6 +465,9 @@
     <t>I travel a lot for business and when I chose a Fairfield Inn (I've stayed in other Fairfield Inn's before) and paid $145 total for one night, I expected much better. My room smelled like body odor and bathroom did not feel or smell cleaned at all. Very disappointing- ESPECIALLY for the amount of money paid. I would never expect this from a Fairfield Inn. More</t>
   </si>
   <si>
+    <t>spmcgurk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r511122382-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -456,6 +495,9 @@
     <t>Great place to stay once you get past DFW going westbound. The staff was fantastic and very helpful with all you could ask for. Definitely a good choice. Easy on and off the freeway. Fuel is near by as well as many Dinning choices More</t>
   </si>
   <si>
+    <t>CervezaTejas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r508140001-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>Nice comfortable modern hotel with ample parking and nice breakfast in the morning. My room was clean and comfortable and had a great view west of the location of mostly country and open spaces. Staff was helpful and friendly. Great location right off I-20 and close to restaurants and stores. I will stay here again.More</t>
   </si>
   <si>
+    <t>Jennifer P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r500247710-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -510,6 +555,9 @@
     <t>This is a nice hotel and our room was exactly as advertised.  The rooms that connect are very loud and I was woken up several times with extremely loud neighbors.  I don't know if all rooms connect but definitely request one that doesn't if possible.  Breakfast is simple but adequate but they were out of black tea the entire week of our stay.  Treadmills in fitness center weren't well maintained, one squeaked a lot and the other was wobbly.  Also only one washer and dryer for the entire hotel.  More</t>
   </si>
   <si>
+    <t>tripcasey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r490818464-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>Great place to stay right on the interstate. Has all the basics. Clean room, goodnight sleep, easy off/on interstate 20. Free breakfast was pretty good, lots of healthy choices as well as indulgent ones. I'd definitely stay here again.More</t>
   </si>
   <si>
+    <t>DL B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r484188824-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -564,6 +615,9 @@
     <t>Tired of driving pulled off of Interstate 40. Nice clean rooms. Very quiet, secure parking. Front desk very accommodating. Even put my ice blocks in the freezer for me over night. Lots of stores in the area. Free WiFi and breakfast. $$ but worth it.More</t>
   </si>
   <si>
+    <t>Donna D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r482461912-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -588,6 +642,9 @@
     <t>Extremely clean, nice rooms, great breakfast, convenient location to everything!  Support staff went out of their way with whatever you needed, thank you Jessica!  Great for families, business or pleasure travelers.  Has pool, workout area, business station, and meeting rooms.  Will definately stay again.More</t>
   </si>
   <si>
+    <t>Hsueh S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r468323552-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -615,6 +672,9 @@
     <t>Brandy greeted us when we checked in and provided amazing customer service. Our room was clean, spacious and relaxing. The breakfast was good with a lot of room for seating. The hotel is in a great location with a number of restaurants. Thank you for a comfortable stay!More</t>
   </si>
   <si>
+    <t>SNS1990</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r466872772-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -639,6 +699,9 @@
     <t>Overall positive experience, quiet, clean and comfortable.  Only concern was in the bathroom, the sink water flow had minimal output.  Shower was not a problem so we did not bother reporting it.  Also could use more shelf space in the bathroom, maybe under the sink.More</t>
   </si>
   <si>
+    <t>texandmumsie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r457337904-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -666,6 +729,9 @@
     <t>Great breakfast/good hot coffee/ quiet and clean/awesome bed and pillow/bottled water/friendly people/wide hallways/good parking/close to everything-retail shopping and food/ perfect!Nice modern dining room/ free breakfast/ helpful employees/ delicious oatmeal with walnuts and raisins cranberries, agave syrup! Real cream for your coffee, good fruit / gluten free choices/ wonderful pillows / direct Tv/ good meeting rooms- I'm very happy there - planning to return!More</t>
   </si>
   <si>
+    <t>carla c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r444109181-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t>Upon check in Georgia greeted us and stayed that they were expecting us. We felt so welcomed!! While we were there my mother fell and cut her leg at my dad's house. When we got back to the hotel I told Georgia and Garth what had happened and Garth brought extra towels to our room and even went out of his way to make up a solution of warm water and Oxiclean to clean up the blood in our car. Amazing!!!! I would stay there again just because of the great customer care. We loved our room and the comfy beds, as well. Thank you Georgia and Garth for making us feel so welcomed and well taken care of!!More</t>
   </si>
   <si>
+    <t>Chris P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r437659756-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -717,6 +786,9 @@
     <t>Excellent property and exceptional staff. We have stayed here on many occasions over the last couple years while visiting a family member in long term care. Clean rooms, excellent breakfast, friendly staff and close to everything. We will miss coming to Texas. More</t>
   </si>
   <si>
+    <t>ch1k0r1ta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r433639062-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -744,6 +816,9 @@
     <t>First thing first. The hotel's gym is pretty good for a hotel gym. Dumbbells from 5 to 50lbs. Very good quality treadmills (2) and elliptical machines also great quality. Hotel staff very friendly, breakfast was good, had more variety than others, and coffee was very good.Grocery stores, convince stores, fast food and some good shops walking distance. More</t>
   </si>
   <si>
+    <t>Kathleen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r428088180-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -768,6 +843,9 @@
     <t>It is 6 am I've been awake since midnight because the mattress stinks. Sinking in the middle. What is the problem with Fairfield mattresses. I thought the Springfield IL location was bad. This one just as bad. I tried sleeping on the fold out couch. Then moved to the floor. Then moved the cushions on the floor with a blanket.  I will never stay in a Fairfield again. More</t>
   </si>
   <si>
+    <t>HotDogChamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r409773689-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -795,6 +873,9 @@
     <t>I stayed here overnight while traveling on IH-20.  The front desk clerk was efficient but not very friendly.  However, he got me checked in quickly which I appreciated after a long day on the road.My room was clean and the bed was extremely comfortable.  The television and air conditioner worked well.  The room was extremely quiet, which is a huge plus in my book.  The room was equipped with a microwave and mini refrigerator, which was nice. I would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>WestTexastraveller17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r408806075-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -813,6 +894,9 @@
     <t>This is a very good Fairfield. The woman working the front desk when we arrived was pleasant, efficient, and friendly. The room was clean and comfortable. Everything worked. The breakfast was okay. We will stay there again.More</t>
   </si>
   <si>
+    <t>Flyfishdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r391757807-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -837,6 +921,9 @@
     <t>The staff was very friendly. I only stay one night before heading to my next destination. The room was clean and there were some restaurants nearby. The hotel has an very comfortable local feel. I would stay here again.More</t>
   </si>
   <si>
+    <t>Val A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r387091136-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -861,6 +948,9 @@
     <t>We were traveling around the country and needed an place to stay at the end of the day.  Their was room at the hotel when we got there, although it was a little hard to find from the freeway.  The room was a bit tight to have a king size bed in it, but the bed was comfortable and the room quiet.  They had breakfast in the morning as well.More</t>
   </si>
   <si>
+    <t>MikeFerraro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r377985286-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -888,6 +978,9 @@
     <t>We recently stayed at this oh not so lovely hotel. Where to begin, the check in went smooth, the room had a light fixture hanging off the wall with a shade missing, half the outlets didn't work, some of the lights didn't work, and the sink barely had any water coming out of the faucet even with both hot and cold wide open. The hotel double booked 2 of my family members rooms and instead of offering a solution to the issue the girl at the front desk was downright rude and argumentative.  The indoor pool was hotter and more humid than the hot Texas sun and had no AC or air circulation what so ever.while I was sitting in the hot tub I looked up and noticed a 6'x6' section of the ceiling missing that was covered in plastic and the plastic had pockets full of poop brown water and I am.not sure if the water dripping into the hot tub was condensation or water from inside the plastic, needless to say we didn't use the hot tub again.More</t>
   </si>
   <si>
+    <t>Jenna V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r377757817-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1005,9 @@
     <t>This place should not be part of Marriott. The employees and their families were using the pool and hot tub. It felt like the local public swimming pool. The adults at the pool were working and serving breakfast there the next morning. Maybe I am wrong and all ten of them had a room that night. The pool was so small that more than three people made it crowded. The tile around the pool was jagged and sharp in some places. Very disappointed!More</t>
   </si>
   <si>
+    <t>Jeffrey W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r375754855-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1032,9 @@
     <t>Good Corning hotel with a good breakfast good location great staff great pour hot tubgood for business travelers will stay there and recommended for all my friends and you're in my study a whole lot and a good reward program and knowledgeable about the surroundingsMore</t>
   </si>
   <si>
+    <t>sunbelters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r370995121-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1062,9 @@
     <t>Another great Fairfield hotel.  Very enjoyable stay.  Warm reception upon our arrival.  Room was cozy and with the usual decor.  The room located on the first floor was quiet.  Breakfast  was excellent with a nice variety.  We will be back next year.More</t>
   </si>
   <si>
+    <t>Kerrie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r369276843-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1089,9 @@
     <t>Great staff and clean rooms. The check in process was quick and easy.  They give a welcome bag to each guest; which is an added touch. The rooms are large and spacious for a family of four. The kids liked having the living room to hang out in. Will stay at this hotel again. More</t>
   </si>
   <si>
+    <t>Selina O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r368711762-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1113,9 @@
     <t>Our home was severely water damaged. Our home was not safe to be in during restoration...My husband being a transplant patient did not help our situation. Fairfield did more than help us maintain our health and well being...I got up just,about every night around 2 am to go downstairs and make a cup of tea...they(the staff) really seemed to emphasize with us about our situation.WHEN YOU TRAVEL AND NEED A CLEAN QUIET PLACE TO PUT YOUR FEET UP...you definitely need to stop and stay @ Fairfield  Inn &amp; Suites 175 Alford Drive in weatherford....Thank you so very much!Kindest Regards SelinaO More</t>
   </si>
   <si>
+    <t>HouTexRunner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r367433287-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1032,6 +1140,9 @@
     <t>Booked a couple rooms at the Fairfield Inn and was very happy with the service, friendliness of the staff, and cleanliness of facility.Upon booking my room the hotel was almost completely full but still got me a couple of rooms across the hall from each other. Once again happy with my stay and will return again when in the area. Thank you Fairfield Inn.Houtex RunnerMore</t>
   </si>
   <si>
+    <t>huntfieldmaster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r366635057-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1161,9 @@
     <t>When you reserve 4 rooms for 2 nights for a weekend stay, you would think that the staff could be a little more on the ball and make sure that rooms have been cleaned, beds made and fresh towels for the 2nd night. As a frequent traveler and a Marriott rewards member, and after receiving a reply to the survey that the hotel sent for her to evaluate her experience and a survey that my wife filled out nicely commenting that the service  was lacking, the hotel GM sent the standard "we're sorry reply, hope you try us again" response to her. An email was was sent to the GM explaining the disappointment with her reply and the experience at her hotel, to date, she has not responded. Needless to say, We won't be staying there again!!More</t>
   </si>
   <si>
+    <t>Greekprof7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r361464448-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1188,9 @@
     <t>This is the second time I stayed here - the first was a few years ago. Then there was major renovation going on. This time there seemed to be some improvements but some things have declined. The room was clean enough but the furniture was banged up here and there. The faucet in the bathroom had issues - the aerator was clogged and the water sprayed out erratically; the cold water handle came off. The pillows were not firm at all. Temperature control was good. Breakfast on Sunday was late in being available, which is not a huge deal except when they start breakfast late on the weekend. The fare was typical and not outstanding. The front desk attendant at check-in was a little less than gracious but not rude. Of course, it was late and probably the end of his shift. I've stayed in about 5 different hotels in the Weatherford area and this one is not my favorite. More</t>
   </si>
   <si>
+    <t>Doug_McGraw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r357450074-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1218,9 @@
     <t>Stayed here on my way to Houston. Hotel staff was kind and attentive even recommending a great little restaurant. Only concern for me is that the mattress was a little firm for my liking. The property itself is clean and easy to get to. I'll stay again.More</t>
   </si>
   <si>
+    <t>Jason M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r356035838-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1248,9 @@
     <t>Went out to Texas for a Wedding and stayed here for a few days. The staff is very helpful, friendly and professional. The rooms and continental breakfast was awesome and will defiantly stay here again.More</t>
   </si>
   <si>
+    <t>Andre H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r355356544-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1152,6 +1275,9 @@
     <t>I would like to say that the front desk receptionist, MRS. LULU GRIFFITH REALLY MADE me feel SO WELCOMED at teh fairfield inn! I even recommened some of my co-workers to stay at this hotel because she is the true DEFINITION of Professional and Curtious customer service. I have been in and out of hotels for seventeen years and I have to say she is the BEST by fair. To whom who is reading this fairfield inn has a GREAT ASSET to there COMPANY!!! Lulu is the reason why I would be choosing to stay at MARRIOTT Hotels any time. Mrs. Griffith Displays herself as a PERFECT team LEADER!More</t>
   </si>
   <si>
+    <t>TaylorPettit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r348196275-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1302,9 @@
     <t>Stayed three nights with my three children. The staff was very helpful and friendly. The Hotel is situated close to everything (not that Weatherford is a big place) , but it seemed convenient. Indoor pool was a big hit with the kids. Complimentary breakfast was a big hit with me. We will be back. A tip: if you turn left rather than right onto Alford you get to the service road and don't have to pull a U-turn. More</t>
   </si>
   <si>
+    <t>hotdoggirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r342452244-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1332,9 @@
     <t>We stay at this hotel every year when we drive across the country to enjoy some winter sun in AZ.  The hotel is conveniently located off I-20.  It's always clean, comfortable &amp; very well maintained.  What prompted me to write a review this year was the welcome we received when we checked in.  Jessica checked us in.  We're Marriott platinum &amp; she already had us upgraded to a suite.  That rarely happens at other hotels without asking for an upgrade.  She also had a daily paper set aside for us as well as a bag with extra waters &amp; treats.  It's the little things that count.  Thank you Jessica!I highly recommend this Fairfield &amp; we will definitely stay here again.More</t>
   </si>
   <si>
+    <t>fcmuscato</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r341653996-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1359,9 @@
     <t>This Fairfield Inn&amp;Suites is excellent.  Clean rooms, comfortable beds at a great price ($96 the Friday night I stayed).Easy access to/from I-20 and plenty of restaurants near by. Friendly staff and great breakfast offerings tops off a great stay at this hotel.More</t>
   </si>
   <si>
+    <t>54yellowrose2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r340066014-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1386,9 @@
     <t>My husband and I stayed in this location while riding horses in the area..  It was moderately priced, clean and the staff were very friendly and accommodating..  I asked for a late checkout and it was given with no problems..  The property was typical of this price of lodging, a continental breakfast, typical, was provided..More</t>
   </si>
   <si>
+    <t>dbc1212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r336923381-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1413,9 @@
     <t>The room itself was clean and staff was friendly.  Bathroom could've used a little more attention.   Only 3 towels for four people and it was clean enough but not what I expect from a Marriott property.  Came in late at night and left the next morning so didn't have a chance to use any of the amenities. More</t>
   </si>
   <si>
+    <t>manokes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r330251865-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1440,9 @@
     <t>Was in Texas for Nieces wedding. We had rooms at the Fairfield inn. The service was fantastic. Best Breakfast ever. Clean and very well decirated. Will definitly stay here agsin! Easily accessible to major highways.  More</t>
   </si>
   <si>
+    <t>JRHorse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r329941797-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1467,9 @@
     <t>We arrived late in the evening for a one night stay. The bed and room were pretty decent, but we did have an issue with the TV, which would not operate properly. The video image was glitched - the TV displayed date and time were two days old. We called the front desk a few times to try and troubleshoot the issue, though it seemed that the front desk person grew slightly more irritated with each additional phone call. The breakfast was ok as well. Overall, while this hotel does provide good value, I would consider other properties in the area.More</t>
   </si>
   <si>
+    <t>TexasRodeo2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r329531197-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1494,9 @@
     <t>Front desk help was friendly and helpful. Room was clean and comfortable. Loved the pillows, not too fluffy and not too flat. Got a good nights rest in nice quiet hotel. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Andreamelo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r329438217-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1515,9 @@
     <t>Had a comfortable and big room. Not bad stay didn't have breakfast. But the beds were a bit hard. otherwise a good stay. Got there late just for sleep. Close to Pizza hut walked there. was a good stay overall.More</t>
   </si>
   <si>
+    <t>billypolege</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r325380518-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1542,9 @@
     <t>Beside at great hotel the staff and service is super.  Plus the breakfast is great.  Upon arrival you are always greeted with a great smile and a warm hello!  Our room was very nice and roomy.  Always clean and roomy.More</t>
   </si>
   <si>
+    <t>Mark W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r323071177-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1416,6 +1572,9 @@
     <t>Check in around 9:30.  Person on duty seemed busy.  There were no cookies left, and when I asked, he told me "we are totally out."  Very matter of factly.  Room was OK, but as usual, bed was soft.  Hotel was clean. No real complaints.  I have been on the road for  6 nights now, and hotels are starting to seem similar.  The woman at the breakfast was particularly nice/friendly.   I recommend reading other reviews.More</t>
   </si>
   <si>
+    <t>James E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r320891187-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1599,9 @@
     <t>This hotel is very clean and appears to be recently renovated or new. Very nice hotel. Bed was very comfortable. Staff were very friendly and helpful when looking for a place to eat and watch sports. I highly recommend staying here if you are near here and need a place to stay. More</t>
   </si>
   <si>
+    <t>58Michele59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r320095163-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1626,9 @@
     <t>So glad we picked this hotel! There are lots of choices at this exit. Very clean with comfortable bed.  I don't think it is a new hotel, but so well kept &amp; clean you wouldn't know it.  Will for sure stay there again if in Weatherford.More</t>
   </si>
   <si>
+    <t>Nated2519</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r319859664-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1653,9 @@
     <t>Great hotel, very nice, clean, great staff, and free breakfast. This is a new hotel, nice bathroom, comfortable bed. This exit off the interstate is full of hotels.  The breakfast is free and not a continental breakfast a full breakfast.More</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r297655118-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1683,9 @@
     <t>Driving from El Paso, TX to Atlanta, GA after my son deployed I stopped at this hotel with no reservation and low expectations. I was exhausted and emotional and just needed a place to sleep. I was greeted by Teressa Hissam at the Front Desk. She was absolutely amazing. She checked me in quickly, offered thanks for my sons service, and even gave me a room with a Jacuzzi tub! Just what I needed!!! She is a wonderful brand ambassador. The next morning I left my wallet at the desk, and the clerk called my husband immediately. I will still in the parking lot, thank goodness. If I am ever traveling in this part of Texas again, I will go out of my way to stay at this hotel. Hopefully Teressa will still be there!More</t>
   </si>
   <si>
+    <t>the4taals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r297198311-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1710,9 @@
     <t>We drove from Dyess, AR and had no reservations, we are Marriott members so we tried this hotel, great rate and a non smoking hotel for a stop along the way. We had an executive suite which had 2 double beds and a double sofa bed and a large bathroom, which accommodated us perfectly. The pool is a bit small but worked for us and the hot tub was nice. The breakfast was good. The staff was friendly and helpful. Would definitely recommend!More</t>
   </si>
   <si>
+    <t>bablock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r293095084-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1737,9 @@
     <t>i needed a last minute place to stay while waiting for my apartment to get ready. I found a deal on hotwire and was pleasantly surprised with a clean indoor pool, large clean rooms, plenty of coffee, and a huge breakfast bar. it was exactly what I needed after a stressful week of moving. there was even a really nice cafe about two miles down the streetMore</t>
   </si>
   <si>
+    <t>rich08854</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r290235887-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1590,6 +1767,9 @@
     <t>The front desk personnel were all helpful (except one) who was a short with everyone... Megan on nights was great and Sandy who cleaned my room was outstanding.Breakfast was very good, with a variety of fresh foods and great coffeeOnly complaint was that the toilet flushed... reported it twice to no avail Stayed for 5 days and would stay again and would recommend it to my family or friendsMore</t>
   </si>
   <si>
+    <t>Judy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r288372882-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1794,9 @@
     <t>We were fortunate to get a room due to the Peach Festival and 40,000 people being in town. We were extremely pleased with the friendliness and helpfulness of the staff. Extra clean, excellent location and very reasonable rates... Very happy with Fairfield, weatherford, TX*****More</t>
   </si>
   <si>
+    <t>IslaholicIslamujeres</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r287426482-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1638,6 +1821,9 @@
     <t>This is my first visit to this hotel but won't be my last,the staff is delightful, talked at to the General Manager Karmyn Moore, she's a delight and strives to make you feel at home and welcome.Breakfast is great lots of choices,rooms are clean and comfortable, they have a washer and dryer thats handy, close places to eat nearby,sits back off the highway so miss most of the interstate noise, I will be back for sure I enjoy the staff and the entire atmosphere.I travel every week and I feel at home here.More</t>
   </si>
   <si>
+    <t>Buckeyebiker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r286954805-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1845,9 @@
     <t>We spent three nights at this Fairfield Inn located about halfway down a big hill. Once we got use to the location, we appreciated the distace from all of the traffic noise. We were greeted with big smiles, perfectly clean rooms and a hot breakfast. Having plenty of different restaurants, gasoline statatione and a car wash close by was great, too. Upon leaving, the street signs direct left or right. Turn left if you want to turn left at the top of Alford Rd. It saves a U Turn. We liked this Fairfield Inn a lot.More</t>
   </si>
   <si>
+    <t>Angela H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r273834644-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1686,6 +1875,9 @@
     <t>Hubby and I stayed at the Fairfield Inn, Weatherford while on a bereavement. It was so nice to be greeted  by such friendly, helpful staff. The rooms were clean and the bed was comfortable. The breakfast lady was also kind. Our only complaint about the entire stay was that the breakfast lacked bacon. Overall, when we return to the Weatherford area, we will most likely stay at the Fairfield Inn again.More</t>
   </si>
   <si>
+    <t>dmr8460</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r253891892-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1902,9 @@
     <t>Stayed here for 2 nights. Staff was helpful and friendly but they are the best thing about this facility. Rooms are smaller than any Fairfield I've ever stayed in. Room was noisy. Holes in the walls in the bathroom from where they changed out a mirror. Breakfast was fine. Parking was adequate. Just an average stay. More</t>
   </si>
   <si>
+    <t>Cdav2TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r249839552-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1737,6 +1932,9 @@
     <t>I highly recommend this property. It is far enough from I-20 that noise is nit a problem. Breakfast was a tick above average. My room was clean  without those details which need repair such as window sheers. The experience in total is very good. More</t>
   </si>
   <si>
+    <t>susegg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r241861114-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1764,6 +1962,9 @@
     <t>The management of the Inn was especially accommodating.  We were attending a wedding and she allowed us to check in early so we could get dressed for the wedding.  The rooms are a little small compaired to others in the area but very clean and the breakfast was quite good.  Its in a good location for restaurants in the area.More</t>
   </si>
   <si>
+    <t>Roberta D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r240169914-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +1989,9 @@
     <t>The suite rooms were the cutest things! Small living areas with a couch and chair to actually sit instead of on the bed! 2 tv's, microwave, fridge. Nice large restroom with name brand toiletries! Staff were all pleasant and helpful. Cookies, coffee available at all times. Also a few items on breakfast bar available all the time. Nice decor. Only issues: while sitting in living room area, noises from hall were very loud and plain conversations heard, doors are really heavy and no way to quietly close it to avoid waking others in the room or even the room next door! The breakfast lasted 4 hours on weekends which was great but not much. Yes, hot waffles but eggs/sausage both days. Only instant oatmeal packets, the usual breads but only one toaster and only one waffle iron! Many items kept running out-like fruit. But this was a busy weekend with several events and sports teams. Breakfast lady was working as fast as she could. Will stay again if in Weatherford!Convenient location to I20 and places to shop/eat.More</t>
   </si>
   <si>
+    <t>mike w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r232226216-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1815,6 +2019,9 @@
     <t>I enjoy that the location of this property is near my office and close to most all of the restaurants in the area. This property seems to be lacking in some key areas that tend to get overlooked. Some things like not having towels in the fitness room and machines not working correctly or being damaged, staff not greeting guests as they pass through the lobby, not offering healthy hot items on breakfast, not having a guest dryer available and not offering an alternative when presented with the issue. I travel over 300 nights a year and stay mostly in marriotts, so these things are not a constant in the fairfields/otherwise that I stay in. I was not recognized for my rewards status at checkin or even offered and upgrade or an arrival gift and the upgraded high speed wireless did not work at all and when I brought it to the front desk's attention they just shrugged "not my problem" attitude. As stated before, these are not total dealbreakers but when you add them up it seems like they just don't care.More</t>
   </si>
   <si>
+    <t>Monica C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r229418510-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1839,6 +2046,9 @@
     <t>Staff was friendly. Rooms were cleaned to our satisfaction. The king room was plenty big and the bathroom was huge. Location was right where the shopping and restaurants are so that's a plus for me. I would stay here again.More</t>
   </si>
   <si>
+    <t>Me76132</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r202320083-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1863,6 +2073,9 @@
     <t>We stayed her Sat night for Easter weekend in whirlpool suite, first our reservation was not in the system, second condition of whirlpool suite was not good jets didn't work in whirlpool tub, I reported this problem to front desk they didn't even seem to care. Next time I probably will stay elsewhere.Breakfast only coffee that was set out was decaf disappointing.More</t>
   </si>
   <si>
+    <t>Dispencer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r200525344-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1917,6 +2130,9 @@
     <t>I was here on a business trip and stayed here primarily because of the rate I found. The rooms were decent but there was no place in the bathroom to hang a towel while in the shower. Beds were decent but not great. The biggest disappointment was the breakfast. Items such as cups for the waffle batter were not out. The fridge was empty - had to ask for milk. Supplies were not restocked well. The refurbishing of the exterior was not a bother since it was a weekend.  More</t>
   </si>
   <si>
+    <t>Redtequila</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r188310851-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1932,6 +2148,9 @@
     <t>Spend a weekend here, with three kids under 12.Breakfast was hot, even at 9:30 (breakfast ends at 9:30 on weekends)We were provided with a tray to bring breakfast for all of us upstairs.If your party is more than 4, request a suite (it offers two full size beds and a pull out).Pool was very clean.Hotel has a little "shop" where you can buy snacks and drinks, if you are willing to pay 2-3x more for them.Free coffee and cookies offered during the day.Free wi-fi!</t>
   </si>
   <si>
+    <t>DKB863</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r187845960-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1950,6 +2169,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>Nemokota</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r179124325-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2190,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Jeffrey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r177996186-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2211,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Deanne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r171819739-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2001,6 +2229,9 @@
     <t>Front desk help excellent under pressure. Weather was a problem with checking in, TV, and telephone. Front desk guy Tyler did a great job managing the problems. There was electricity but storm caused allkinds of ccomputer issues.</t>
   </si>
   <si>
+    <t>imsoon41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r170510217-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2016,6 +2247,9 @@
     <t>The staff is most accommodating. The rooms are nice, beds soft...workout room is amazing, great sauna and pool. They have a nice collection of sundries. I highly recommend. Great location right by the mall.</t>
   </si>
   <si>
+    <t>Joy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r163870777-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2034,6 +2268,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Haley T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r162756922-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2286,9 @@
     <t>We have stayed at this hotel for the last two weekends and found the staff to be extremely helpful. The rooms are very clean and nice and the lobby is beautiful! Make sure to stop by the coffee stand and get some cookies from the jar! We did have a couple of small problems while we were there Friday night, but they were quickly taken care of by the staff</t>
   </si>
   <si>
+    <t>KelCC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r157802482-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2070,6 +2310,9 @@
     <t>The Fairfield Inn is one of many hotel choices off I-20 in Weatherford, Tx. The front desk clerk was inexperienced, and we had to try three different rooms to get wifi connectivity, although the hotel advertised free wifi. The wifi only seemed to work in hallways and the lobby. Because we booked through Tingo, we were treated like second-class visitors, in terms of helpfulness and responsiveness to our needs for Wifi. When we finally found a room with Wifi, it was clean, if slightly threadbare. Room #425 has wifi access. The rooms each have micro and fridge. We noticed a scent-machine in the lobby and wondered about the decision to leave it on display. The breakfast had scrambled eggs and sausage plus the usual continental breakfast options.  The front desk manager did recommend a good restaurant for dinner and provided a map. Bottom line--The Fairfield Inn is not entirely awful, but I can't recommend it either, especially if you book your own travel through the Internet as we do and require Wifi connectivity.More</t>
   </si>
   <si>
+    <t>BonVoyage555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r155639180-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2088,6 +2331,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Jeremy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r153222022-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2106,6 +2352,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>happy1901</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r148044058-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2370,9 @@
     <t>My husband and I stayed at this hotel for one night. We loved the staff , so friendly and professional.They have complimentary breakfast in morning which was great too. Very nice, clean and upgraded hotel. Due to it being in super small town, everything is near by with 2 miles from this hotel; shopping, food etc</t>
   </si>
   <si>
+    <t>caligula r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r147803410-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2142,6 +2394,9 @@
     <t>Completely annoyed by this location the floor was wet by the desk. have experience with using reward pts with hotels for my stays and rarely had my CC charged. THIS LOCATION DID NOT JUST PLACE 1 HOLD ON MY CARD and messed around with my acct 2nd time after we were long gone and checked out a 2nd time.  WHY are they messing around with my money in the first place to check us in and after we left . we aren't teens or young cpl  that trash the wet crowded room, they gave us.    today the charges finally disappeared . save the sorrys and excuses . just simply stop messing around and making unauthorized charges!More</t>
   </si>
   <si>
+    <t>Michael J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r147725043-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2160,6 +2415,9 @@
     <t>My wife and I had a reservation for a double suite, but when we arrived, the room wasn't available.  The gentleman that night, Andrew, was actually quite nice and very much wanted to help, He even offered to bring another mattress from a different room, but there wasn't enough space available.  My daughter ended up having to sleep on the floor, which means she couldn't go to sleep until after midnight.  The next morning, the day shift manager tried to blame the incident on two different people and when we asked how they intended to make it right (my daughter slept on the floor!), she said she had discounted the room $8.  Gee.  She also said the general manager would contact us in a day or two to talk to us.  It has been four days and we haven't heard a thing, nor do we expect to.We have stayed at this location several other times and the property is still nice, but we will be less likely to stay here now after how we were treated, especially as there are several other new hotels right nearby.  Overall, a disappointmentMore</t>
   </si>
   <si>
+    <t>hurricane48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r145284808-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2178,6 +2436,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Annayet23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r145068490-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2193,6 +2454,9 @@
     <t>So this hotel was nice, rooms were comfy and clean as was the hotel. However, we drove from El Paso to Upstate NY and once we got in the our room, we just wanted to sleep. The sheer curtains closed with no problem but the blackout curtains do not close at all. So needless to say we had light from the parking lot in our face all night!</t>
   </si>
   <si>
+    <t>papa-oo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r143560247-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2211,6 +2475,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>TravelingFamily111111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r138366933-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2226,6 +2493,9 @@
     <t>Would never stay here again. Not well kept, very disappointing. We got a suite and it was very dirty. The pool was disgusting appearing. We have a small child and thought about checking out because it didn't feel clean at all. Lotion was even used that was left in bathroom.</t>
   </si>
   <si>
+    <t>PyshdawgCKCS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r137865160-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2244,6 +2514,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Tracy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r132178108-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2265,6 +2538,9 @@
     <t>We found our stay very nice, the service was unfailingly courteous and responsive. It looks like a brand new hotel (I asked and was told it was 3 years old), it's an entirely smoke-free and pet-free building; I could tell that was the case. It smelled clean... not a "chemical clean," but just a natural fresh air clean. We had a King Suite for ourselves and our two daughters, they used the pullout sofa and said it was very comfortable. The bedsheets were soft like my own (other hotel sheets seem stiff or starched), the suite was immaculately clean. The continental breakfast bar was well stocked and stayed very tidy in spite of hosting a large crowd. I liked that the diy waffle maker did not require using a non-stick spray, in fact all the breakfast equipment was sparkling as if new. We really enjoyed this visit and will come again.More</t>
   </si>
   <si>
+    <t>geotravelerNV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r132168479-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2277,6 +2553,9 @@
     <t>Pool, workout room, and lobby were great.  FREE breakfast every morning was great.  The room was small and cramped, but it worked out just fine.  The staff always welcomed us back when we walked in and was very nice.  I would recommend this hotel.  Also, the laundry worked fantastic but the machine said it was a 30 min cycle, but it was actually 90 mins.  :)  Clean and comfortable</t>
   </si>
   <si>
+    <t>RunningAround42195</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r131933191-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2292,6 +2571,9 @@
     <t>We liked it very nuch! Very spacey room with two comfy queen beds. Relaxed in the warm jacuzzi and there is also an indoor pool. Breakfast was good. Nice and elegant hotel and we were very pleased. Nice young receptionist checked us in efficiently. Recommend this hotel!</t>
   </si>
   <si>
+    <t>5_Reasons</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r131757439-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2307,6 +2589,9 @@
     <t>I have stayd in Weatherford several times, and the Fairfield is the best hotel I have found.  Nice staff, clean, friendly, great location are some of the reasons I will stay here again.</t>
   </si>
   <si>
+    <t>ICTS1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r131548456-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2325,6 +2610,9 @@
     <t>This was a very nice, quiet Fairfield, which is what I expect/rely on when I select Marriott properties. My room was a typical king suite and was nicely appointed. Staff was polite and helpful and the location was convienent for my trip. The one thing that stood out, but only mildy, was the attention to detail with cleaning/prep of the room. The tub was clean, but could have been cleaner. For example, the corners of the tub were a little dirty and could have used a little more attention. The back of the microwave had a food stain I think could have been removed, etc. Again, these wouldn't stop me from recommending it or staying here again, but it's something for the management to keep in mind. The "downhill slide" often begins with a little slip!More</t>
   </si>
   <si>
+    <t>Mary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r128412364-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2346,6 +2634,9 @@
     <t>Wonderful Room!  Great Bed!  Unbelieveable 1st Class Service from Tucker Hutto, Anna Wilke, Asst. Manager Krista Abernathy, and Manager Cindy McDaniel.  We had large wedding party and other guests in hotel were forced to remain in their rooms, but all the above staff went beyond the norm to get all of our wedding party guests rooms also!  All guests were so very happy and the service we received was extraordinary.  They even brought warm towels to our room! ROOMS ARE CLEAN CLEAN AND THE PLACE IS QUIET QUIET QUIET! We all had a wonderful stay and it was really the best sleep I have gotten in YEARS!!!  They assisted us with everything related to Wedding Jitters, to giving directions, and gave excellent advise of where to eat and have fun too!  They completely made it our home away from home!  I will make it a point to visit Weatherford  just so I can stay THERE again!!!! Fairfield Inn &amp; Suites should give a seminar to all hotels on customer service.  Also, one of the people in the group lost their ring and the Hotel found IT!!!!!  I can't say enough how much I love Fairfield Inn.  YOU ARE THE BEST!!!!! Easy to get to!  and not right on the highway, so it is very peaceful and grounds are beautiful too!!!!More</t>
   </si>
   <si>
+    <t>JBL09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r123895353-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2364,6 +2655,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Cryoking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r122999304-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2382,6 +2676,9 @@
     <t>I can't recall not being able to get 2 queens in the whole state of Texas (normal for the whole east coast), but the Fairfield in Weatherford has no queen beds. I generally get a king whenever possible, and also prefer the top floor. Was told that kings are on 1st and 2nd floor, and queens on top floor. Well- 2 full beds isn't the same as 2 queens. If you're as tall as I am, you don't fit in a full bed, and it makes for an uncomfortable night. Luckily the hotel was not full, and I changed to a king room. I would not recommend room 129, at least if it's cold outside. There is a gas generator (?) right outside the window. It powered on and off all night long, quite noisy. Breakfast was nominal- I've had better breakfasts @ other Fairfield Inns. Overall a decent stay, but nothing spectacular. Also at sometime during the night, someone attempted to steal fuel from my vehicle, which was out of view of the security camera. There are approximately 6 other hotels in the immediate area, and a co-worker had the same issue at another nearby hotel around 6 months ago, so be sure to be alert. Not a bad area, just not much around other than hotels, and a gas station w/a Burger King inside.More</t>
   </si>
   <si>
+    <t>Sharon D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r118092423-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2400,6 +2697,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>Leder1174</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r117848470-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2413,6 +2713,9 @@
   </si>
   <si>
     <t>Staff is very accommodating , rooms spotless, we did not pre book.  Informed front staff is helpful when looking for places to eat or shop.</t>
+  </si>
+  <si>
+    <t>Nik3300</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r114659189-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -2438,6 +2741,9 @@
 When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic...The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic and said that since it was a Sunday, the GM would not be in until Monday morning but for us to be sure and call back becuase we should get our room comped. We had booked a suite with double beds, since no king beds were available, and the couch pulled out into a bed since we had 2 children traveling with us. Since the hotel could not provide us with a new mattress for the couch bed, our children had to sleep with us. Needless to say, it was a very uncomfortable night as we paid and booked a room so the kids could sleep together and we could all have room. This was not the case!!When we checked out, all the hotel discounted the room was $20!! So for things in the mattress that were not supposed to be, kids sleeping with us that was not supposed to be, I feel that we should've gotten the room more heavily discounted than $20 if not free. When you pay for a room, you expect it to be clean and where you're not cramped  for sleeping arrangements. My husband called the GM the following Tues and told him that she was aware of what was on the mattress and that teenagers had stayed in the room prior to us and she couldn't be certain that it was bugs or crumbs. And she couldn't discount it anymore than the $20 that was...More</t>
   </si>
   <si>
+    <t>angelfitz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r113832066-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2456,6 +2762,9 @@
     <t>We arrived at the Fairfield Inn earlier than scheduled and hoped that we could check in  as we had a long work day ahead of us. Thankfully, the staff had our rooms ready and gave us our keys so that we could drop off our luggage. There was a slight problem with my check-in; however, the manager quickly handled the situation and upgraded me to a king suite along with offering several apologies for the inconvenience. You can judge a manager by the way he/she handles adversity and this manager certainly was on top of her game!The hotel is quiet, the breakfast is hot - or cold, depending on your preference - and the staff is super friendly and accommodating!More</t>
   </si>
   <si>
+    <t>tpshooz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r102557543-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2474,6 +2783,9 @@
     <t>March 2011</t>
   </si>
   <si>
+    <t>wclon157</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r98291615-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2495,6 +2807,9 @@
     <t>i stayed at this hotel for 3 nights on business. the hotel was in a word, wonderful. when i first walked in i knoticed how clean and beautiful the lobby was. the young gentleman, weston, who was working at the front desk was very nice and check in was a very quick and easy. after venturing to my room i was amazed by the quality and effort obviously put into cleaning the room. after getting setteled i decided i would enjoy a bite to eat. i asked weston about some of the local places to dine in. he gave me a few recomendations and after picking one he printed me directions from the hotel to the diner. and also took the time to expain the construction and how to get through it without to much hassle. in the morning at breakfast i was delighted to see that they had biscuits &amp; gravy as well as a waffle maker. tedra, the woman working breakfast was very quick and courteous. taking the time to make sure that all the guests needcs were met. over all this was one of the most enjoyable experiences i have had in a hotel while travling for business in a long time. Would i return to this hotel for any type of leasure? the answer is simple i already made the reservations and cant wait to come back!More</t>
   </si>
   <si>
+    <t>AussieinTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r96605775-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2511,6 +2826,9 @@
   </si>
   <si>
     <t>I stayed here with my husband the weekend of12/13th Feb. The only minor issue we had was that when we went to check-in there was no-one at the desk. We waited for about five mins, then my husband even tried calling the hotel's number which went unanswered. Like I said - minor issue - when we came back again 5 mins we were checked in with no problems.The hotel common areas (eg lobby, elevators, etc) were very clean. Our room itself was spotless! We had a whirlpool king room - the 2 person whirlpool was great - very deep, filled up quicky and plenty of hot water. Extremely comfy bed and pillows and great channels on the huge flat screen TV. Staff were friendly - especially the lady taking care of the breakfast area on Sunday morning. Even though we came down to eat just as she was starting to pack up she made sure we still got everything we wanted. Overall this is a very clean hotel in a good location (far enough away from the interstate to not hear any traffic, but still easy to get to). I especially appreciated the value ($40 - $80/night cheaper than equivalent rooms at other hotels), but the quality of the room doesn't make you feel like you paid less. Would definitely stay here again if ever in the area.More</t>
+  </si>
+  <si>
+    <t>traciwil3087</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r32060041-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -3038,43 +3356,47 @@
       <c r="A2" t="n">
         <v>58684</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -3094,50 +3416,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>58684</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3151,50 +3477,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58684</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1579</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3208,50 +3538,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58684</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>137090</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3267,56 +3601,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58684</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>19606</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3328,56 +3666,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58684</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>137091</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3395,56 +3737,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58684</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>37597</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
       <c r="O8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3456,56 +3802,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58684</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>137092</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
         <v>100</v>
       </c>
-      <c r="J9" t="s">
-        <v>93</v>
-      </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3517,56 +3867,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58684</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>137093</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3584,56 +3938,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58684</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>137094</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3649,56 +4007,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58684</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>41421</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3716,47 +4078,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58684</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>137095</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -3773,56 +4139,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58684</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>137096</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3834,56 +4204,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58684</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>137097</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3901,56 +4275,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58684</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>14158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3962,56 +4340,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58684</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>94952</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4023,56 +4405,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58684</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>137098</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4084,56 +4470,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58684</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7852</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>185</v>
       </c>
-      <c r="L19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>169</v>
-      </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4145,56 +4535,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58684</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>137099</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4210,56 +4604,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58684</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>137100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4277,56 +4675,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58684</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>137101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="O22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4338,56 +4740,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="X22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58684</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>137102</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4399,56 +4805,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58684</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4460,56 +4870,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58684</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>137103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4521,56 +4935,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="X25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="Y25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58684</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>4161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4582,56 +5000,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58684</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>137104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>275</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="O27" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4647,56 +5069,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58684</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136986</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4712,56 +5138,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="X28" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58684</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>544</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4777,56 +5207,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58684</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>44884</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4844,56 +5278,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="X30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58684</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>137105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>310</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4905,56 +5343,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58684</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>137106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4966,56 +5408,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="X32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58684</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5027,56 +5473,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="X33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="Y33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58684</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>137107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>338</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5088,47 +5538,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="X34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58684</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>137108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>348</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -5145,56 +5599,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="X35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="Y35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58684</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>137109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>357</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="J36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="K36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="L36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="O36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5206,56 +5664,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="X36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58684</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>137110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="O37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5267,56 +5729,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58684</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>137111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="J38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="K38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5328,56 +5794,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="X38" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="Y38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58684</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>137112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>381</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="K39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="L39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="O39" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5389,56 +5859,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="X39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58684</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>137113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="O40" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5450,56 +5924,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58684</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>11999</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="O41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5517,56 +5995,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="X41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58684</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>39760</v>
+      </c>
+      <c r="C42" t="s">
+        <v>410</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="J42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="O42" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5584,56 +6066,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="X42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="Y42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58684</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>137114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>419</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="J43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="L43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="O43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5645,56 +6131,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="X43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="Y43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58684</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>137115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>428</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="J44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="K44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="L44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="O44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5710,56 +6200,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="X44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="Y44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58684</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>137116</v>
+      </c>
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="J45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="K45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="L45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="O45" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -5777,56 +6271,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="X45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="Y45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58684</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>137117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>447</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="J46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="O46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5844,56 +6342,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="X46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="Y46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58684</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>137118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>456</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="L47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="O47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5905,56 +6407,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="X47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="Y47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58684</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>137119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>465</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5966,56 +6472,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="X48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="Y48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58684</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>137120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="J49" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="K49" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="L49" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6033,56 +6543,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="X49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="Y49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58684</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>137121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>483</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="J50" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="K50" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="L50" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6094,56 +6608,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58684</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>137122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>492</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="J51" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="K51" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="L51" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6161,56 +6679,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="X51" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="Y51" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58684</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>137123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>499</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="J52" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K52" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L52" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="O52" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6228,56 +6750,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="X52" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="Y52" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58684</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C53" t="s">
+        <v>508</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="J53" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="L53" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="O53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6289,56 +6815,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="X53" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="Y53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58684</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>21960</v>
+      </c>
+      <c r="C54" t="s">
+        <v>518</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="J54" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="K54" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="L54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="O54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6350,56 +6880,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="X54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="Y54" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58684</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>137124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>527</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>474</v>
+        <v>528</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>529</v>
       </c>
       <c r="J55" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="K55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="L55" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="O55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6417,56 +6951,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="X55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="Y55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58684</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>27302</v>
+      </c>
+      <c r="C56" t="s">
+        <v>536</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="J56" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="K56" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="L56" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="O56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6484,56 +7022,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="X56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="Y56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58684</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>18650</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="K57" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="L57" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="O57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6551,56 +7093,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="X57" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="Y57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58684</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>17117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>555</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="J58" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="K58" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="L58" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="O58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6618,47 +7164,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="X58" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="Y58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58684</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>137125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>564</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="J59" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="K59" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="L59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -6675,56 +7225,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="X59" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="Y59" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58684</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>137126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>573</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="J60" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="K60" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="L60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O60" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6742,47 +7296,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="X60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="Y60" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58684</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>16829</v>
+      </c>
+      <c r="C61" t="s">
+        <v>583</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="J61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="K61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="L61" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6799,56 +7357,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="X61" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="Y61" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58684</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>137127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>592</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="J62" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="K62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="L62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="O62" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6866,56 +7428,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="X62" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="Y62" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58684</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>20511</v>
+      </c>
+      <c r="C63" t="s">
+        <v>601</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="J63" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="K63" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="L63" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="O63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6933,56 +7499,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="X63" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="Y63" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58684</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>32928</v>
+      </c>
+      <c r="C64" t="s">
+        <v>609</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="J64" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="K64" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="L64" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="O64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6994,47 +7564,51 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="X64" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="Y64" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58684</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>137128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>619</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="J65" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="K65" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="L65" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -7051,56 +7625,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="X65" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="Y65" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58684</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>137129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>628</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="J66" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="K66" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="L66" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="O66" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7112,56 +7690,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="X66" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="Y66" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58684</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>137130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>638</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="J67" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="K67" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="L67" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="O67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7177,56 +7759,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="X67" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="Y67" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58684</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>74330</v>
+      </c>
+      <c r="C68" t="s">
+        <v>648</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="J68" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="K68" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="L68" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="O68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7248,56 +7834,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="X68" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="Y68" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58684</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>76796</v>
+      </c>
+      <c r="C69" t="s">
+        <v>657</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="J69" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="K69" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="L69" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="O69" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7313,47 +7903,51 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X69" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y69" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>58684</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>15985</v>
+      </c>
+      <c r="C70" t="s">
+        <v>667</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="J70" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="K70" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="L70" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7380,47 +7974,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="X70" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="Y70" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58684</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>137131</v>
+      </c>
+      <c r="C71" t="s">
+        <v>676</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="J71" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="K71" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="L71" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -7447,56 +8045,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="X71" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="Y71" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58684</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>136997</v>
+      </c>
+      <c r="C72" t="s">
+        <v>685</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="J72" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="K72" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="L72" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="O72" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7518,56 +8120,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="X72" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="Y72" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58684</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>137111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>381</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="J73" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="K73" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="L73" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>629</v>
+        <v>700</v>
       </c>
       <c r="O73" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7579,47 +8185,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="X73" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="Y73" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58684</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>137132</v>
+      </c>
+      <c r="C74" t="s">
+        <v>704</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="J74" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="K74" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="L74" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -7638,50 +8248,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58684</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>137133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>710</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="J75" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="K75" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="L75" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="O75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7705,50 +8319,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58684</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>137134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>717</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="J76" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="K76" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="L76" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="O76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7762,50 +8380,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>58684</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>19549</v>
+      </c>
+      <c r="C77" t="s">
+        <v>724</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="J77" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="K77" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="L77" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="O77" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7819,41 +8441,45 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>58684</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>137135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>731</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="J78" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="K78" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="L78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -7882,41 +8508,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>58684</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>137136</v>
+      </c>
+      <c r="C79" t="s">
+        <v>737</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="J79" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="K79" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="L79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7945,50 +8575,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>58684</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>14545</v>
+      </c>
+      <c r="C80" t="s">
+        <v>743</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="J80" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="K80" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="L80" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="O80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8012,50 +8646,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>58684</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>137137</v>
+      </c>
+      <c r="C81" t="s">
+        <v>750</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="J81" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="K81" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
       <c r="L81" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="O81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8079,50 +8717,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>676</v>
+        <v>755</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>58684</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>137138</v>
+      </c>
+      <c r="C82" t="s">
+        <v>756</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="J82" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="K82" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="L82" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="O82" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8136,50 +8778,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>58684</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>31990</v>
+      </c>
+      <c r="C83" t="s">
+        <v>764</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="J83" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="K83" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="L83" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="O83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8203,50 +8849,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>58684</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>3412</v>
+      </c>
+      <c r="C84" t="s">
+        <v>771</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="J84" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="K84" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="L84" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="O84" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8270,41 +8920,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>58684</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>137139</v>
+      </c>
+      <c r="C85" t="s">
+        <v>778</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="J85" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="K85" t="s">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="L85" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -8333,50 +8987,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>58684</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>137140</v>
+      </c>
+      <c r="C86" t="s">
+        <v>784</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="J86" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="K86" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="L86" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="O86" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8398,50 +9056,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>58684</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>15601</v>
+      </c>
+      <c r="C87" t="s">
+        <v>792</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="J87" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="K87" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="L87" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="O87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8465,50 +9127,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>713</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>58684</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>137141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>799</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="J88" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="K88" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="L88" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="O88" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8532,41 +9198,45 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>58684</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>137142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>806</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="J89" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
       <c r="K89" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="L89" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
@@ -8595,50 +9265,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>58684</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>137143</v>
+      </c>
+      <c r="C90" t="s">
+        <v>812</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="J90" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="K90" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="L90" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="O90" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8662,41 +9336,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>58684</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>137144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>819</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="J91" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="K91" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="L91" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
@@ -8725,50 +9403,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>58684</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>137145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>825</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="J92" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="K92" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="L92" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="O92" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8792,50 +9474,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>58684</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>17270</v>
+      </c>
+      <c r="C93" t="s">
+        <v>832</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="J93" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="K93" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="L93" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="O93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8859,50 +9545,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>58684</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>137146</v>
+      </c>
+      <c r="C94" t="s">
+        <v>840</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="J94" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="K94" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="L94" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="O94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8926,50 +9616,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>58684</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>137147</v>
+      </c>
+      <c r="C95" t="s">
+        <v>845</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
       <c r="J95" t="s">
-        <v>755</v>
+        <v>848</v>
       </c>
       <c r="K95" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="L95" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="O95" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8983,50 +9677,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>58684</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>137148</v>
+      </c>
+      <c r="C96" t="s">
+        <v>851</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>758</v>
+        <v>852</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>759</v>
+        <v>853</v>
       </c>
       <c r="J96" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="K96" t="s">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="L96" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="O96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9050,50 +9748,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>58684</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>137149</v>
+      </c>
+      <c r="C97" t="s">
+        <v>857</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="J97" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
       <c r="K97" t="s">
-        <v>766</v>
+        <v>861</v>
       </c>
       <c r="L97" t="s">
-        <v>767</v>
+        <v>862</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="O97" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9117,50 +9819,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>768</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>58684</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>5411</v>
+      </c>
+      <c r="C98" t="s">
+        <v>864</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>769</v>
+        <v>865</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>770</v>
+        <v>866</v>
       </c>
       <c r="J98" t="s">
-        <v>771</v>
+        <v>867</v>
       </c>
       <c r="K98" t="s">
-        <v>772</v>
+        <v>868</v>
       </c>
       <c r="L98" t="s">
-        <v>773</v>
+        <v>869</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>774</v>
+        <v>870</v>
       </c>
       <c r="O98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9184,50 +9890,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>775</v>
+        <v>871</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>58684</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>137150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>872</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>776</v>
+        <v>873</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>777</v>
+        <v>874</v>
       </c>
       <c r="J99" t="s">
-        <v>778</v>
+        <v>875</v>
       </c>
       <c r="K99" t="s">
-        <v>779</v>
+        <v>876</v>
       </c>
       <c r="L99" t="s">
-        <v>780</v>
+        <v>877</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>781</v>
+        <v>878</v>
       </c>
       <c r="O99" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9251,50 +9961,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>780</v>
+        <v>877</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>58684</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>137151</v>
+      </c>
+      <c r="C100" t="s">
+        <v>879</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>782</v>
+        <v>880</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>783</v>
+        <v>881</v>
       </c>
       <c r="J100" t="s">
-        <v>784</v>
+        <v>882</v>
       </c>
       <c r="K100" t="s">
-        <v>785</v>
+        <v>883</v>
       </c>
       <c r="L100" t="s">
-        <v>786</v>
+        <v>884</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>781</v>
+        <v>878</v>
       </c>
       <c r="O100" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9318,50 +10032,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>787</v>
+        <v>885</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>58684</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>18559</v>
+      </c>
+      <c r="C101" t="s">
+        <v>886</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>788</v>
+        <v>887</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>789</v>
+        <v>888</v>
       </c>
       <c r="J101" t="s">
-        <v>790</v>
+        <v>889</v>
       </c>
       <c r="K101" t="s">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="L101" t="s">
-        <v>792</v>
+        <v>891</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>793</v>
+        <v>892</v>
       </c>
       <c r="O101" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9383,41 +10101,45 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>792</v>
+        <v>891</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>58684</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>137152</v>
+      </c>
+      <c r="C102" t="s">
+        <v>893</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>794</v>
+        <v>894</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>795</v>
+        <v>895</v>
       </c>
       <c r="J102" t="s">
-        <v>796</v>
+        <v>896</v>
       </c>
       <c r="K102" t="s">
-        <v>797</v>
+        <v>897</v>
       </c>
       <c r="L102" t="s">
-        <v>798</v>
+        <v>898</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
@@ -9446,50 +10168,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>798</v>
+        <v>898</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>58684</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>137153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>899</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>800</v>
+        <v>901</v>
       </c>
       <c r="J103" t="s">
-        <v>801</v>
+        <v>902</v>
       </c>
       <c r="K103" t="s">
-        <v>802</v>
+        <v>903</v>
       </c>
       <c r="L103" t="s">
-        <v>803</v>
+        <v>904</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>804</v>
+        <v>905</v>
       </c>
       <c r="O103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P103" t="n">
         <v>1</v>
@@ -9509,50 +10235,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>805</v>
+        <v>906</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>58684</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>137154</v>
+      </c>
+      <c r="C104" t="s">
+        <v>907</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>806</v>
+        <v>908</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>807</v>
+        <v>909</v>
       </c>
       <c r="J104" t="s">
-        <v>808</v>
+        <v>910</v>
       </c>
       <c r="K104" t="s">
-        <v>809</v>
+        <v>911</v>
       </c>
       <c r="L104" t="s">
-        <v>810</v>
+        <v>912</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>804</v>
+        <v>905</v>
       </c>
       <c r="O104" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9576,50 +10306,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>811</v>
+        <v>913</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>58684</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>137155</v>
+      </c>
+      <c r="C105" t="s">
+        <v>914</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>812</v>
+        <v>915</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>813</v>
+        <v>916</v>
       </c>
       <c r="J105" t="s">
-        <v>814</v>
+        <v>917</v>
       </c>
       <c r="K105" t="s">
-        <v>815</v>
+        <v>918</v>
       </c>
       <c r="L105" t="s">
-        <v>816</v>
+        <v>919</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>817</v>
+        <v>920</v>
       </c>
       <c r="O105" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9643,50 +10377,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>816</v>
+        <v>919</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>58684</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>137156</v>
+      </c>
+      <c r="C106" t="s">
+        <v>921</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
       <c r="J106" t="s">
-        <v>820</v>
+        <v>924</v>
       </c>
       <c r="K106" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="L106" t="s">
-        <v>822</v>
+        <v>926</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>823</v>
+        <v>927</v>
       </c>
       <c r="O106" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9710,50 +10448,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>824</v>
+        <v>928</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>58684</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>137157</v>
+      </c>
+      <c r="C107" t="s">
+        <v>929</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>825</v>
+        <v>930</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>826</v>
+        <v>931</v>
       </c>
       <c r="J107" t="s">
-        <v>827</v>
+        <v>932</v>
       </c>
       <c r="K107" t="s">
-        <v>828</v>
+        <v>933</v>
       </c>
       <c r="L107" t="s">
-        <v>829</v>
+        <v>934</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>823</v>
+        <v>927</v>
       </c>
       <c r="O107" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9777,50 +10519,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>830</v>
+        <v>935</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>58684</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>137158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>936</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>831</v>
+        <v>937</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>832</v>
+        <v>938</v>
       </c>
       <c r="J108" t="s">
-        <v>833</v>
+        <v>939</v>
       </c>
       <c r="K108" t="s">
-        <v>834</v>
+        <v>940</v>
       </c>
       <c r="L108" t="s">
-        <v>835</v>
+        <v>941</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>836</v>
+        <v>942</v>
       </c>
       <c r="O108" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P108" t="n">
         <v>2</v>
@@ -9844,7 +10590,7 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>837</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_253.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_253.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="839">
   <si>
     <t>STR#</t>
   </si>
@@ -147,24 +147,24 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jason W</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r583622288-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>1382094</t>
+  </si>
+  <si>
+    <t>583622288</t>
   </si>
   <si>
     <t>05/29/2018</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r583622288-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
-  </si>
-  <si>
-    <t>56854</t>
-  </si>
-  <si>
-    <t>1382094</t>
-  </si>
-  <si>
-    <t>583622288</t>
-  </si>
-  <si>
     <t>Improving!  Nice Staff, Great Breakfast</t>
   </si>
   <si>
@@ -177,9 +177,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Angela B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r583419515-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>We stayed here after a friend’s wedding in Weatherford. The front desk was empty and took quite awhile for someone to come. It seemed several staff members were hanging out in a back office. They only came to help us when I looked around the corner and trying to find someone which allowed me to see them hanging out. Maybe a bell on the door or something so they know people are there. Then, housekeeping was knocking on the door at 8 am trying to clean. I understand they do that from time to time but 8 am....on a holiday? Not appreciated. We didn’t have the do not disturb sign up so next time will make sure to place it. Still, wouldn’t think the knocking should start that early regardless. Room was clean. Decent. What you would expect for the price. Nothing spectacular but not bad either. More</t>
   </si>
   <si>
-    <t>Craig C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r579671071-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>G4522IOgarym</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r558731466-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -252,9 +243,6 @@
     <t>I am a HUGE FAN of Fairfield and/or Courtyard Hotels. I stay in hotels 5 to 8 nights a month and I find Marriott very pleasing. That being said, I was traveling to see my daughter at Fort Bliss and decided to stay at the Fairfield Inn at Weatherford, TX. Hotel was very clean, employees were very friendly no complaints with any of that. The bed however was almost as comfortable as a rock with a sheet draped over it. Could NOT SLEEP at all. I would not recommend this hotel to anyone because of this.More</t>
   </si>
   <si>
-    <t>Carolyn S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r550762328-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>We stay at Fairfield Inns and Marriotts on a regular basis because we know what we’re getting and we trust the brand.  We have stayed at this hotel several times and the last time we stayed I wasn’t as pleased as normal, but I couldn’t remember what the problem was, so we stayed here again.  Now I know better.  The hear/air system is not good and really needs an overhaul.  When we checked in, the room was really warm, so we turned the a/c on.  It wasn’t until 3 AM that the room was a comfortable temperature.  Considering it was 22 degrees outside, you wouldn’t think a room that was too hot would be a problem, but it was.  Too bad.  I’ll try some other place next time.More</t>
   </si>
   <si>
-    <t>Ric B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r549563981-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>This is a fine place to stop if you are in the Weatherford, TX area. It is all you could want: clean, quiet, and the beds are comfortable. There are many eating places close by. The price is reasonable, and the included breakfast was good. I would be happy to stay here again.More</t>
   </si>
   <si>
-    <t>Mari D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r545768430-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -336,9 +318,6 @@
     <t>We stopped here without a reservation and were very pleased.  This place is extremely reasonable for the accommodations.  The bed was extra comfy, it was extremely clean and the breakfast was the best selection of any hotel we've visited.  Would stay and highly recommend!More</t>
   </si>
   <si>
-    <t>LuAnn B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r545768083-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -354,9 +333,6 @@
     <t>We were in town for a wedding, and this Fairfield was very close to shopping, restaurants, and a block off Interstate 20.  The staff was friendly and accommodating.  I used the treadmill in the exercise room, which didn't have a lot of machines, but for one or two people using the facility, it was adequate.  There were a few people in the pool and hot tub who looked like they were having fun.  Breakfast was good and provided eggs, sausage, oatmeal, the usual breakfast items, plus a waffle iron was provided for waffles.  We were on the top floor which was very quiet. The bathroom was clean and roomy.More</t>
   </si>
   <si>
-    <t>shannondgaylor</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r544612485-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -378,9 +354,6 @@
     <t>Great place to stay when in Weatherford Tx located in the center of strip malls, and eating places namely Waffle House! The room was really nice it had it's own little living area with a separate tv, and couch. The beds were very comfortable as were the pillows. I just love the fact that all Marriott affiliates use Paul Mitchell hair products.The staff worked together as a TEAM to accommodate us in every instance. I was impressed by the indoor pool and spa as well as the fitness area. Laundry room was spacious, and had a Tv with remote to entertain yourself while doing laundry if thats possible to do! Just had a great experience here I believe you will too. Oh by the way the breakfast there was Awesome as well. Cant eat at Waffle House everyday!More</t>
   </si>
   <si>
-    <t>LCHS1972</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r542510117-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -405,9 +378,6 @@
     <t>We recently stayed here for a wedding.  We stayed 2 nights and were very pleased with the room and with the great selection for breakfast.  The only downfall was that we didn't have our own car and were hoping that Fairfield could shuttle us across the highway to the nearby mall.  They did however give us the number for the local taxi.  The pool and hot tub were under repair ~~ so we weren't able to enjoy that.More</t>
   </si>
   <si>
-    <t>grog426</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r534152943-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -438,9 +408,6 @@
     <t>I spent two nights in this hotel while traveling to a car show event in Granbury, TX. This Fairfield appears new and above the average Fairfield. The rooms are nice as is the common areas and enclosed pool. There are outside sitting areas (although small) which have a BBQ grill with tables and chairs on the back side of the hotel. I was pleased with the location within easy walking distance from several good restaurants. The staff was helpful and very nice...a good choice  for my weekend that I expect to visit again.More</t>
   </si>
   <si>
-    <t>rda2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r526513918-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -465,9 +432,6 @@
     <t>I travel a lot for business and when I chose a Fairfield Inn (I've stayed in other Fairfield Inn's before) and paid $145 total for one night, I expected much better. My room smelled like body odor and bathroom did not feel or smell cleaned at all. Very disappointing- ESPECIALLY for the amount of money paid. I would never expect this from a Fairfield Inn. More</t>
   </si>
   <si>
-    <t>spmcgurk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r511122382-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -495,9 +459,6 @@
     <t>Great place to stay once you get past DFW going westbound. The staff was fantastic and very helpful with all you could ask for. Definitely a good choice. Easy on and off the freeway. Fuel is near by as well as many Dinning choices More</t>
   </si>
   <si>
-    <t>CervezaTejas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r508140001-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -528,9 +489,6 @@
     <t>Nice comfortable modern hotel with ample parking and nice breakfast in the morning. My room was clean and comfortable and had a great view west of the location of mostly country and open spaces. Staff was helpful and friendly. Great location right off I-20 and close to restaurants and stores. I will stay here again.More</t>
   </si>
   <si>
-    <t>Jennifer P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r500247710-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -555,9 +513,6 @@
     <t>This is a nice hotel and our room was exactly as advertised.  The rooms that connect are very loud and I was woken up several times with extremely loud neighbors.  I don't know if all rooms connect but definitely request one that doesn't if possible.  Breakfast is simple but adequate but they were out of black tea the entire week of our stay.  Treadmills in fitness center weren't well maintained, one squeaked a lot and the other was wobbly.  Also only one washer and dryer for the entire hotel.  More</t>
   </si>
   <si>
-    <t>tripcasey</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r490818464-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -585,9 +540,6 @@
     <t>Great place to stay right on the interstate. Has all the basics. Clean room, goodnight sleep, easy off/on interstate 20. Free breakfast was pretty good, lots of healthy choices as well as indulgent ones. I'd definitely stay here again.More</t>
   </si>
   <si>
-    <t>DL B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r484188824-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -615,9 +567,6 @@
     <t>Tired of driving pulled off of Interstate 40. Nice clean rooms. Very quiet, secure parking. Front desk very accommodating. Even put my ice blocks in the freezer for me over night. Lots of stores in the area. Free WiFi and breakfast. $$ but worth it.More</t>
   </si>
   <si>
-    <t>Donna D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r482461912-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -642,9 +591,6 @@
     <t>Extremely clean, nice rooms, great breakfast, convenient location to everything!  Support staff went out of their way with whatever you needed, thank you Jessica!  Great for families, business or pleasure travelers.  Has pool, workout area, business station, and meeting rooms.  Will definately stay again.More</t>
   </si>
   <si>
-    <t>Hsueh S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r468323552-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -672,9 +618,6 @@
     <t>Brandy greeted us when we checked in and provided amazing customer service. Our room was clean, spacious and relaxing. The breakfast was good with a lot of room for seating. The hotel is in a great location with a number of restaurants. Thank you for a comfortable stay!More</t>
   </si>
   <si>
-    <t>SNS1990</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r466872772-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -699,9 +642,6 @@
     <t>Overall positive experience, quiet, clean and comfortable.  Only concern was in the bathroom, the sink water flow had minimal output.  Shower was not a problem so we did not bother reporting it.  Also could use more shelf space in the bathroom, maybe under the sink.More</t>
   </si>
   <si>
-    <t>texandmumsie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r457337904-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -729,9 +669,6 @@
     <t>Great breakfast/good hot coffee/ quiet and clean/awesome bed and pillow/bottled water/friendly people/wide hallways/good parking/close to everything-retail shopping and food/ perfect!Nice modern dining room/ free breakfast/ helpful employees/ delicious oatmeal with walnuts and raisins cranberries, agave syrup! Real cream for your coffee, good fruit / gluten free choices/ wonderful pillows / direct Tv/ good meeting rooms- I'm very happy there - planning to return!More</t>
   </si>
   <si>
-    <t>carla c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r444109181-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -759,9 +696,6 @@
     <t>Upon check in Georgia greeted us and stayed that they were expecting us. We felt so welcomed!! While we were there my mother fell and cut her leg at my dad's house. When we got back to the hotel I told Georgia and Garth what had happened and Garth brought extra towels to our room and even went out of his way to make up a solution of warm water and Oxiclean to clean up the blood in our car. Amazing!!!! I would stay there again just because of the great customer care. We loved our room and the comfy beds, as well. Thank you Georgia and Garth for making us feel so welcomed and well taken care of!!More</t>
   </si>
   <si>
-    <t>Chris P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r437659756-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -786,9 +720,6 @@
     <t>Excellent property and exceptional staff. We have stayed here on many occasions over the last couple years while visiting a family member in long term care. Clean rooms, excellent breakfast, friendly staff and close to everything. We will miss coming to Texas. More</t>
   </si>
   <si>
-    <t>ch1k0r1ta</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r433639062-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -816,9 +747,6 @@
     <t>First thing first. The hotel's gym is pretty good for a hotel gym. Dumbbells from 5 to 50lbs. Very good quality treadmills (2) and elliptical machines also great quality. Hotel staff very friendly, breakfast was good, had more variety than others, and coffee was very good.Grocery stores, convince stores, fast food and some good shops walking distance. More</t>
   </si>
   <si>
-    <t>Kathleen S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r428088180-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -843,9 +771,6 @@
     <t>It is 6 am I've been awake since midnight because the mattress stinks. Sinking in the middle. What is the problem with Fairfield mattresses. I thought the Springfield IL location was bad. This one just as bad. I tried sleeping on the fold out couch. Then moved to the floor. Then moved the cushions on the floor with a blanket.  I will never stay in a Fairfield again. More</t>
   </si>
   <si>
-    <t>HotDogChamp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r409773689-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -873,9 +798,6 @@
     <t>I stayed here overnight while traveling on IH-20.  The front desk clerk was efficient but not very friendly.  However, he got me checked in quickly which I appreciated after a long day on the road.My room was clean and the bed was extremely comfortable.  The television and air conditioner worked well.  The room was extremely quiet, which is a huge plus in my book.  The room was equipped with a microwave and mini refrigerator, which was nice. I would not hesitate to stay here again.More</t>
   </si>
   <si>
-    <t>WestTexastraveller17</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r408806075-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -894,9 +816,6 @@
     <t>This is a very good Fairfield. The woman working the front desk when we arrived was pleasant, efficient, and friendly. The room was clean and comfortable. Everything worked. The breakfast was okay. We will stay there again.More</t>
   </si>
   <si>
-    <t>Flyfishdad</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r391757807-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -921,9 +840,6 @@
     <t>The staff was very friendly. I only stay one night before heading to my next destination. The room was clean and there were some restaurants nearby. The hotel has an very comfortable local feel. I would stay here again.More</t>
   </si>
   <si>
-    <t>Val A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r387091136-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -948,9 +864,6 @@
     <t>We were traveling around the country and needed an place to stay at the end of the day.  Their was room at the hotel when we got there, although it was a little hard to find from the freeway.  The room was a bit tight to have a king size bed in it, but the bed was comfortable and the room quiet.  They had breakfast in the morning as well.More</t>
   </si>
   <si>
-    <t>MikeFerraro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r377985286-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -978,9 +891,6 @@
     <t>We recently stayed at this oh not so lovely hotel. Where to begin, the check in went smooth, the room had a light fixture hanging off the wall with a shade missing, half the outlets didn't work, some of the lights didn't work, and the sink barely had any water coming out of the faucet even with both hot and cold wide open. The hotel double booked 2 of my family members rooms and instead of offering a solution to the issue the girl at the front desk was downright rude and argumentative.  The indoor pool was hotter and more humid than the hot Texas sun and had no AC or air circulation what so ever.while I was sitting in the hot tub I looked up and noticed a 6'x6' section of the ceiling missing that was covered in plastic and the plastic had pockets full of poop brown water and I am.not sure if the water dripping into the hot tub was condensation or water from inside the plastic, needless to say we didn't use the hot tub again.More</t>
   </si>
   <si>
-    <t>Jenna V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r377757817-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1005,9 +915,6 @@
     <t>This place should not be part of Marriott. The employees and their families were using the pool and hot tub. It felt like the local public swimming pool. The adults at the pool were working and serving breakfast there the next morning. Maybe I am wrong and all ten of them had a room that night. The pool was so small that more than three people made it crowded. The tile around the pool was jagged and sharp in some places. Very disappointed!More</t>
   </si>
   <si>
-    <t>Jeffrey W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r375754855-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1032,9 +939,6 @@
     <t>Good Corning hotel with a good breakfast good location great staff great pour hot tubgood for business travelers will stay there and recommended for all my friends and you're in my study a whole lot and a good reward program and knowledgeable about the surroundingsMore</t>
   </si>
   <si>
-    <t>sunbelters</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r370995121-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1062,9 +966,6 @@
     <t>Another great Fairfield hotel.  Very enjoyable stay.  Warm reception upon our arrival.  Room was cozy and with the usual decor.  The room located on the first floor was quiet.  Breakfast  was excellent with a nice variety.  We will be back next year.More</t>
   </si>
   <si>
-    <t>Kerrie T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r369276843-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1089,9 +990,6 @@
     <t>Great staff and clean rooms. The check in process was quick and easy.  They give a welcome bag to each guest; which is an added touch. The rooms are large and spacious for a family of four. The kids liked having the living room to hang out in. Will stay at this hotel again. More</t>
   </si>
   <si>
-    <t>Selina O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r368711762-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1113,9 +1011,6 @@
     <t>Our home was severely water damaged. Our home was not safe to be in during restoration...My husband being a transplant patient did not help our situation. Fairfield did more than help us maintain our health and well being...I got up just,about every night around 2 am to go downstairs and make a cup of tea...they(the staff) really seemed to emphasize with us about our situation.WHEN YOU TRAVEL AND NEED A CLEAN QUIET PLACE TO PUT YOUR FEET UP...you definitely need to stop and stay @ Fairfield  Inn &amp; Suites 175 Alford Drive in weatherford....Thank you so very much!Kindest Regards SelinaO More</t>
   </si>
   <si>
-    <t>HouTexRunner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r367433287-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1140,9 +1035,6 @@
     <t>Booked a couple rooms at the Fairfield Inn and was very happy with the service, friendliness of the staff, and cleanliness of facility.Upon booking my room the hotel was almost completely full but still got me a couple of rooms across the hall from each other. Once again happy with my stay and will return again when in the area. Thank you Fairfield Inn.Houtex RunnerMore</t>
   </si>
   <si>
-    <t>huntfieldmaster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r366635057-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1161,9 +1053,6 @@
     <t>When you reserve 4 rooms for 2 nights for a weekend stay, you would think that the staff could be a little more on the ball and make sure that rooms have been cleaned, beds made and fresh towels for the 2nd night. As a frequent traveler and a Marriott rewards member, and after receiving a reply to the survey that the hotel sent for her to evaluate her experience and a survey that my wife filled out nicely commenting that the service  was lacking, the hotel GM sent the standard "we're sorry reply, hope you try us again" response to her. An email was was sent to the GM explaining the disappointment with her reply and the experience at her hotel, to date, she has not responded. Needless to say, We won't be staying there again!!More</t>
   </si>
   <si>
-    <t>Greekprof7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r361464448-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1188,9 +1077,6 @@
     <t>This is the second time I stayed here - the first was a few years ago. Then there was major renovation going on. This time there seemed to be some improvements but some things have declined. The room was clean enough but the furniture was banged up here and there. The faucet in the bathroom had issues - the aerator was clogged and the water sprayed out erratically; the cold water handle came off. The pillows were not firm at all. Temperature control was good. Breakfast on Sunday was late in being available, which is not a huge deal except when they start breakfast late on the weekend. The fare was typical and not outstanding. The front desk attendant at check-in was a little less than gracious but not rude. Of course, it was late and probably the end of his shift. I've stayed in about 5 different hotels in the Weatherford area and this one is not my favorite. More</t>
   </si>
   <si>
-    <t>Doug_McGraw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r357450074-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1218,9 +1104,6 @@
     <t>Stayed here on my way to Houston. Hotel staff was kind and attentive even recommending a great little restaurant. Only concern for me is that the mattress was a little firm for my liking. The property itself is clean and easy to get to. I'll stay again.More</t>
   </si>
   <si>
-    <t>Jason M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r356035838-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1248,9 +1131,6 @@
     <t>Went out to Texas for a Wedding and stayed here for a few days. The staff is very helpful, friendly and professional. The rooms and continental breakfast was awesome and will defiantly stay here again.More</t>
   </si>
   <si>
-    <t>Andre H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r355356544-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1275,9 +1155,6 @@
     <t>I would like to say that the front desk receptionist, MRS. LULU GRIFFITH REALLY MADE me feel SO WELCOMED at teh fairfield inn! I even recommened some of my co-workers to stay at this hotel because she is the true DEFINITION of Professional and Curtious customer service. I have been in and out of hotels for seventeen years and I have to say she is the BEST by fair. To whom who is reading this fairfield inn has a GREAT ASSET to there COMPANY!!! Lulu is the reason why I would be choosing to stay at MARRIOTT Hotels any time. Mrs. Griffith Displays herself as a PERFECT team LEADER!More</t>
   </si>
   <si>
-    <t>TaylorPettit</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r348196275-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1302,9 +1179,6 @@
     <t>Stayed three nights with my three children. The staff was very helpful and friendly. The Hotel is situated close to everything (not that Weatherford is a big place) , but it seemed convenient. Indoor pool was a big hit with the kids. Complimentary breakfast was a big hit with me. We will be back. A tip: if you turn left rather than right onto Alford you get to the service road and don't have to pull a U-turn. More</t>
   </si>
   <si>
-    <t>hotdoggirl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r342452244-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1332,9 +1206,6 @@
     <t>We stay at this hotel every year when we drive across the country to enjoy some winter sun in AZ.  The hotel is conveniently located off I-20.  It's always clean, comfortable &amp; very well maintained.  What prompted me to write a review this year was the welcome we received when we checked in.  Jessica checked us in.  We're Marriott platinum &amp; she already had us upgraded to a suite.  That rarely happens at other hotels without asking for an upgrade.  She also had a daily paper set aside for us as well as a bag with extra waters &amp; treats.  It's the little things that count.  Thank you Jessica!I highly recommend this Fairfield &amp; we will definitely stay here again.More</t>
   </si>
   <si>
-    <t>fcmuscato</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r341653996-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1359,9 +1230,6 @@
     <t>This Fairfield Inn&amp;Suites is excellent.  Clean rooms, comfortable beds at a great price ($96 the Friday night I stayed).Easy access to/from I-20 and plenty of restaurants near by. Friendly staff and great breakfast offerings tops off a great stay at this hotel.More</t>
   </si>
   <si>
-    <t>54yellowrose2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r340066014-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1386,9 +1254,6 @@
     <t>My husband and I stayed in this location while riding horses in the area..  It was moderately priced, clean and the staff were very friendly and accommodating..  I asked for a late checkout and it was given with no problems..  The property was typical of this price of lodging, a continental breakfast, typical, was provided..More</t>
   </si>
   <si>
-    <t>dbc1212</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r336923381-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1413,9 +1278,6 @@
     <t>The room itself was clean and staff was friendly.  Bathroom could've used a little more attention.   Only 3 towels for four people and it was clean enough but not what I expect from a Marriott property.  Came in late at night and left the next morning so didn't have a chance to use any of the amenities. More</t>
   </si>
   <si>
-    <t>manokes</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r330251865-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1440,9 +1302,6 @@
     <t>Was in Texas for Nieces wedding. We had rooms at the Fairfield inn. The service was fantastic. Best Breakfast ever. Clean and very well decirated. Will definitly stay here agsin! Easily accessible to major highways.  More</t>
   </si>
   <si>
-    <t>JRHorse</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r329941797-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1467,9 +1326,6 @@
     <t>We arrived late in the evening for a one night stay. The bed and room were pretty decent, but we did have an issue with the TV, which would not operate properly. The video image was glitched - the TV displayed date and time were two days old. We called the front desk a few times to try and troubleshoot the issue, though it seemed that the front desk person grew slightly more irritated with each additional phone call. The breakfast was ok as well. Overall, while this hotel does provide good value, I would consider other properties in the area.More</t>
   </si>
   <si>
-    <t>TexasRodeo2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r329531197-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1494,9 +1350,6 @@
     <t>Front desk help was friendly and helpful. Room was clean and comfortable. Loved the pillows, not too fluffy and not too flat. Got a good nights rest in nice quiet hotel. Would definitely stay here again.More</t>
   </si>
   <si>
-    <t>Andreamelo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r329438217-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1515,9 +1368,6 @@
     <t>Had a comfortable and big room. Not bad stay didn't have breakfast. But the beds were a bit hard. otherwise a good stay. Got there late just for sleep. Close to Pizza hut walked there. was a good stay overall.More</t>
   </si>
   <si>
-    <t>billypolege</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r325380518-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1542,9 +1392,6 @@
     <t>Beside at great hotel the staff and service is super.  Plus the breakfast is great.  Upon arrival you are always greeted with a great smile and a warm hello!  Our room was very nice and roomy.  Always clean and roomy.More</t>
   </si>
   <si>
-    <t>Mark W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r323071177-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1572,9 +1419,6 @@
     <t>Check in around 9:30.  Person on duty seemed busy.  There were no cookies left, and when I asked, he told me "we are totally out."  Very matter of factly.  Room was OK, but as usual, bed was soft.  Hotel was clean. No real complaints.  I have been on the road for  6 nights now, and hotels are starting to seem similar.  The woman at the breakfast was particularly nice/friendly.   I recommend reading other reviews.More</t>
   </si>
   <si>
-    <t>James E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r320891187-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1599,9 +1443,6 @@
     <t>This hotel is very clean and appears to be recently renovated or new. Very nice hotel. Bed was very comfortable. Staff were very friendly and helpful when looking for a place to eat and watch sports. I highly recommend staying here if you are near here and need a place to stay. More</t>
   </si>
   <si>
-    <t>58Michele59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r320095163-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1626,9 +1467,6 @@
     <t>So glad we picked this hotel! There are lots of choices at this exit. Very clean with comfortable bed.  I don't think it is a new hotel, but so well kept &amp; clean you wouldn't know it.  Will for sure stay there again if in Weatherford.More</t>
   </si>
   <si>
-    <t>Nated2519</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r319859664-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1653,9 +1491,6 @@
     <t>Great hotel, very nice, clean, great staff, and free breakfast. This is a new hotel, nice bathroom, comfortable bed. This exit off the interstate is full of hotels.  The breakfast is free and not a continental breakfast a full breakfast.More</t>
   </si>
   <si>
-    <t>Heather M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r297655118-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1683,9 +1518,6 @@
     <t>Driving from El Paso, TX to Atlanta, GA after my son deployed I stopped at this hotel with no reservation and low expectations. I was exhausted and emotional and just needed a place to sleep. I was greeted by Teressa Hissam at the Front Desk. She was absolutely amazing. She checked me in quickly, offered thanks for my sons service, and even gave me a room with a Jacuzzi tub! Just what I needed!!! She is a wonderful brand ambassador. The next morning I left my wallet at the desk, and the clerk called my husband immediately. I will still in the parking lot, thank goodness. If I am ever traveling in this part of Texas again, I will go out of my way to stay at this hotel. Hopefully Teressa will still be there!More</t>
   </si>
   <si>
-    <t>the4taals</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r297198311-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1710,9 +1542,6 @@
     <t>We drove from Dyess, AR and had no reservations, we are Marriott members so we tried this hotel, great rate and a non smoking hotel for a stop along the way. We had an executive suite which had 2 double beds and a double sofa bed and a large bathroom, which accommodated us perfectly. The pool is a bit small but worked for us and the hot tub was nice. The breakfast was good. The staff was friendly and helpful. Would definitely recommend!More</t>
   </si>
   <si>
-    <t>bablock</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r293095084-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1737,9 +1566,6 @@
     <t>i needed a last minute place to stay while waiting for my apartment to get ready. I found a deal on hotwire and was pleasantly surprised with a clean indoor pool, large clean rooms, plenty of coffee, and a huge breakfast bar. it was exactly what I needed after a stressful week of moving. there was even a really nice cafe about two miles down the streetMore</t>
   </si>
   <si>
-    <t>rich08854</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r290235887-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1767,9 +1593,6 @@
     <t>The front desk personnel were all helpful (except one) who was a short with everyone... Megan on nights was great and Sandy who cleaned my room was outstanding.Breakfast was very good, with a variety of fresh foods and great coffeeOnly complaint was that the toilet flushed... reported it twice to no avail Stayed for 5 days and would stay again and would recommend it to my family or friendsMore</t>
   </si>
   <si>
-    <t>Judy W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r288372882-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1794,9 +1617,6 @@
     <t>We were fortunate to get a room due to the Peach Festival and 40,000 people being in town. We were extremely pleased with the friendliness and helpfulness of the staff. Extra clean, excellent location and very reasonable rates... Very happy with Fairfield, weatherford, TX*****More</t>
   </si>
   <si>
-    <t>IslaholicIslamujeres</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r287426482-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1821,9 +1641,6 @@
     <t>This is my first visit to this hotel but won't be my last,the staff is delightful, talked at to the General Manager Karmyn Moore, she's a delight and strives to make you feel at home and welcome.Breakfast is great lots of choices,rooms are clean and comfortable, they have a washer and dryer thats handy, close places to eat nearby,sits back off the highway so miss most of the interstate noise, I will be back for sure I enjoy the staff and the entire atmosphere.I travel every week and I feel at home here.More</t>
   </si>
   <si>
-    <t>Buckeyebiker</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r286954805-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1845,9 +1662,6 @@
     <t>We spent three nights at this Fairfield Inn located about halfway down a big hill. Once we got use to the location, we appreciated the distace from all of the traffic noise. We were greeted with big smiles, perfectly clean rooms and a hot breakfast. Having plenty of different restaurants, gasoline statatione and a car wash close by was great, too. Upon leaving, the street signs direct left or right. Turn left if you want to turn left at the top of Alford Rd. It saves a U Turn. We liked this Fairfield Inn a lot.More</t>
   </si>
   <si>
-    <t>Angela H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r273834644-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1875,9 +1689,6 @@
     <t>Hubby and I stayed at the Fairfield Inn, Weatherford while on a bereavement. It was so nice to be greeted  by such friendly, helpful staff. The rooms were clean and the bed was comfortable. The breakfast lady was also kind. Our only complaint about the entire stay was that the breakfast lacked bacon. Overall, when we return to the Weatherford area, we will most likely stay at the Fairfield Inn again.More</t>
   </si>
   <si>
-    <t>dmr8460</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r253891892-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1902,9 +1713,6 @@
     <t>Stayed here for 2 nights. Staff was helpful and friendly but they are the best thing about this facility. Rooms are smaller than any Fairfield I've ever stayed in. Room was noisy. Holes in the walls in the bathroom from where they changed out a mirror. Breakfast was fine. Parking was adequate. Just an average stay. More</t>
   </si>
   <si>
-    <t>Cdav2TX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r249839552-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1932,9 +1740,6 @@
     <t>I highly recommend this property. It is far enough from I-20 that noise is nit a problem. Breakfast was a tick above average. My room was clean  without those details which need repair such as window sheers. The experience in total is very good. More</t>
   </si>
   <si>
-    <t>susegg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r241861114-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1962,9 +1767,6 @@
     <t>The management of the Inn was especially accommodating.  We were attending a wedding and she allowed us to check in early so we could get dressed for the wedding.  The rooms are a little small compaired to others in the area but very clean and the breakfast was quite good.  Its in a good location for restaurants in the area.More</t>
   </si>
   <si>
-    <t>Roberta D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r240169914-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -1989,9 +1791,6 @@
     <t>The suite rooms were the cutest things! Small living areas with a couch and chair to actually sit instead of on the bed! 2 tv's, microwave, fridge. Nice large restroom with name brand toiletries! Staff were all pleasant and helpful. Cookies, coffee available at all times. Also a few items on breakfast bar available all the time. Nice decor. Only issues: while sitting in living room area, noises from hall were very loud and plain conversations heard, doors are really heavy and no way to quietly close it to avoid waking others in the room or even the room next door! The breakfast lasted 4 hours on weekends which was great but not much. Yes, hot waffles but eggs/sausage both days. Only instant oatmeal packets, the usual breads but only one toaster and only one waffle iron! Many items kept running out-like fruit. But this was a busy weekend with several events and sports teams. Breakfast lady was working as fast as she could. Will stay again if in Weatherford!Convenient location to I20 and places to shop/eat.More</t>
   </si>
   <si>
-    <t>mike w</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r232226216-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2019,9 +1818,6 @@
     <t>I enjoy that the location of this property is near my office and close to most all of the restaurants in the area. This property seems to be lacking in some key areas that tend to get overlooked. Some things like not having towels in the fitness room and machines not working correctly or being damaged, staff not greeting guests as they pass through the lobby, not offering healthy hot items on breakfast, not having a guest dryer available and not offering an alternative when presented with the issue. I travel over 300 nights a year and stay mostly in marriotts, so these things are not a constant in the fairfields/otherwise that I stay in. I was not recognized for my rewards status at checkin or even offered and upgrade or an arrival gift and the upgraded high speed wireless did not work at all and when I brought it to the front desk's attention they just shrugged "not my problem" attitude. As stated before, these are not total dealbreakers but when you add them up it seems like they just don't care.More</t>
   </si>
   <si>
-    <t>Monica C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r229418510-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2046,9 +1842,6 @@
     <t>Staff was friendly. Rooms were cleaned to our satisfaction. The king room was plenty big and the bathroom was huge. Location was right where the shopping and restaurants are so that's a plus for me. I would stay here again.More</t>
   </si>
   <si>
-    <t>Me76132</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r202320083-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2073,9 +1866,6 @@
     <t>We stayed her Sat night for Easter weekend in whirlpool suite, first our reservation was not in the system, second condition of whirlpool suite was not good jets didn't work in whirlpool tub, I reported this problem to front desk they didn't even seem to care. Next time I probably will stay elsewhere.Breakfast only coffee that was set out was decaf disappointing.More</t>
   </si>
   <si>
-    <t>Dispencer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r200525344-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2130,9 +1920,6 @@
     <t>I was here on a business trip and stayed here primarily because of the rate I found. The rooms were decent but there was no place in the bathroom to hang a towel while in the shower. Beds were decent but not great. The biggest disappointment was the breakfast. Items such as cups for the waffle batter were not out. The fridge was empty - had to ask for milk. Supplies were not restocked well. The refurbishing of the exterior was not a bother since it was a weekend.  More</t>
   </si>
   <si>
-    <t>Redtequila</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r188310851-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2148,9 +1935,6 @@
     <t>Spend a weekend here, with three kids under 12.Breakfast was hot, even at 9:30 (breakfast ends at 9:30 on weekends)We were provided with a tray to bring breakfast for all of us upstairs.If your party is more than 4, request a suite (it offers two full size beds and a pull out).Pool was very clean.Hotel has a little "shop" where you can buy snacks and drinks, if you are willing to pay 2-3x more for them.Free coffee and cookies offered during the day.Free wi-fi!</t>
   </si>
   <si>
-    <t>DKB863</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r187845960-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2169,9 +1953,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>Nemokota</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r179124325-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2190,9 +1971,6 @@
     <t>May 2013</t>
   </si>
   <si>
-    <t>Jeffrey S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r177996186-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2211,9 +1989,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>Deanne B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r171819739-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2229,9 +2004,6 @@
     <t>Front desk help excellent under pressure. Weather was a problem with checking in, TV, and telephone. Front desk guy Tyler did a great job managing the problems. There was electricity but storm caused allkinds of ccomputer issues.</t>
   </si>
   <si>
-    <t>imsoon41</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r170510217-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2247,9 +2019,6 @@
     <t>The staff is most accommodating. The rooms are nice, beds soft...workout room is amazing, great sauna and pool. They have a nice collection of sundries. I highly recommend. Great location right by the mall.</t>
   </si>
   <si>
-    <t>Joy C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r163870777-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2268,9 +2037,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Haley T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r162756922-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2286,9 +2052,6 @@
     <t>We have stayed at this hotel for the last two weekends and found the staff to be extremely helpful. The rooms are very clean and nice and the lobby is beautiful! Make sure to stop by the coffee stand and get some cookies from the jar! We did have a couple of small problems while we were there Friday night, but they were quickly taken care of by the staff</t>
   </si>
   <si>
-    <t>KelCC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r157802482-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2310,9 +2073,6 @@
     <t>The Fairfield Inn is one of many hotel choices off I-20 in Weatherford, Tx. The front desk clerk was inexperienced, and we had to try three different rooms to get wifi connectivity, although the hotel advertised free wifi. The wifi only seemed to work in hallways and the lobby. Because we booked through Tingo, we were treated like second-class visitors, in terms of helpfulness and responsiveness to our needs for Wifi. When we finally found a room with Wifi, it was clean, if slightly threadbare. Room #425 has wifi access. The rooms each have micro and fridge. We noticed a scent-machine in the lobby and wondered about the decision to leave it on display. The breakfast had scrambled eggs and sausage plus the usual continental breakfast options.  The front desk manager did recommend a good restaurant for dinner and provided a map. Bottom line--The Fairfield Inn is not entirely awful, but I can't recommend it either, especially if you book your own travel through the Internet as we do and require Wifi connectivity.More</t>
   </si>
   <si>
-    <t>BonVoyage555</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r155639180-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2331,9 +2091,6 @@
     <t>March 2013</t>
   </si>
   <si>
-    <t>Jeremy D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r153222022-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2352,9 +2109,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>happy1901</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r148044058-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2370,9 +2124,6 @@
     <t>My husband and I stayed at this hotel for one night. We loved the staff , so friendly and professional.They have complimentary breakfast in morning which was great too. Very nice, clean and upgraded hotel. Due to it being in super small town, everything is near by with 2 miles from this hotel; shopping, food etc</t>
   </si>
   <si>
-    <t>caligula r</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r147803410-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2394,9 +2145,6 @@
     <t>Completely annoyed by this location the floor was wet by the desk. have experience with using reward pts with hotels for my stays and rarely had my CC charged. THIS LOCATION DID NOT JUST PLACE 1 HOLD ON MY CARD and messed around with my acct 2nd time after we were long gone and checked out a 2nd time.  WHY are they messing around with my money in the first place to check us in and after we left . we aren't teens or young cpl  that trash the wet crowded room, they gave us.    today the charges finally disappeared . save the sorrys and excuses . just simply stop messing around and making unauthorized charges!More</t>
   </si>
   <si>
-    <t>Michael J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r147725043-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2415,9 +2163,6 @@
     <t>My wife and I had a reservation for a double suite, but when we arrived, the room wasn't available.  The gentleman that night, Andrew, was actually quite nice and very much wanted to help, He even offered to bring another mattress from a different room, but there wasn't enough space available.  My daughter ended up having to sleep on the floor, which means she couldn't go to sleep until after midnight.  The next morning, the day shift manager tried to blame the incident on two different people and when we asked how they intended to make it right (my daughter slept on the floor!), she said she had discounted the room $8.  Gee.  She also said the general manager would contact us in a day or two to talk to us.  It has been four days and we haven't heard a thing, nor do we expect to.We have stayed at this location several other times and the property is still nice, but we will be less likely to stay here now after how we were treated, especially as there are several other new hotels right nearby.  Overall, a disappointmentMore</t>
   </si>
   <si>
-    <t>hurricane48</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r145284808-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2436,9 +2181,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Annayet23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r145068490-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2454,9 +2196,6 @@
     <t>So this hotel was nice, rooms were comfy and clean as was the hotel. However, we drove from El Paso to Upstate NY and once we got in the our room, we just wanted to sleep. The sheer curtains closed with no problem but the blackout curtains do not close at all. So needless to say we had light from the parking lot in our face all night!</t>
   </si>
   <si>
-    <t>papa-oo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r143560247-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2475,9 +2214,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>TravelingFamily111111</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r138366933-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2493,9 +2229,6 @@
     <t>Would never stay here again. Not well kept, very disappointing. We got a suite and it was very dirty. The pool was disgusting appearing. We have a small child and thought about checking out because it didn't feel clean at all. Lotion was even used that was left in bathroom.</t>
   </si>
   <si>
-    <t>PyshdawgCKCS</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r137865160-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2514,9 +2247,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Tracy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r132178108-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2538,9 +2268,6 @@
     <t>We found our stay very nice, the service was unfailingly courteous and responsive. It looks like a brand new hotel (I asked and was told it was 3 years old), it's an entirely smoke-free and pet-free building; I could tell that was the case. It smelled clean... not a "chemical clean," but just a natural fresh air clean. We had a King Suite for ourselves and our two daughters, they used the pullout sofa and said it was very comfortable. The bedsheets were soft like my own (other hotel sheets seem stiff or starched), the suite was immaculately clean. The continental breakfast bar was well stocked and stayed very tidy in spite of hosting a large crowd. I liked that the diy waffle maker did not require using a non-stick spray, in fact all the breakfast equipment was sparkling as if new. We really enjoyed this visit and will come again.More</t>
   </si>
   <si>
-    <t>geotravelerNV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r132168479-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2553,9 +2280,6 @@
     <t>Pool, workout room, and lobby were great.  FREE breakfast every morning was great.  The room was small and cramped, but it worked out just fine.  The staff always welcomed us back when we walked in and was very nice.  I would recommend this hotel.  Also, the laundry worked fantastic but the machine said it was a 30 min cycle, but it was actually 90 mins.  :)  Clean and comfortable</t>
   </si>
   <si>
-    <t>RunningAround42195</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r131933191-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2571,9 +2295,6 @@
     <t>We liked it very nuch! Very spacey room with two comfy queen beds. Relaxed in the warm jacuzzi and there is also an indoor pool. Breakfast was good. Nice and elegant hotel and we were very pleased. Nice young receptionist checked us in efficiently. Recommend this hotel!</t>
   </si>
   <si>
-    <t>5_Reasons</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r131757439-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2589,9 +2310,6 @@
     <t>I have stayd in Weatherford several times, and the Fairfield is the best hotel I have found.  Nice staff, clean, friendly, great location are some of the reasons I will stay here again.</t>
   </si>
   <si>
-    <t>ICTS1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r131548456-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2610,9 +2328,6 @@
     <t>This was a very nice, quiet Fairfield, which is what I expect/rely on when I select Marriott properties. My room was a typical king suite and was nicely appointed. Staff was polite and helpful and the location was convienent for my trip. The one thing that stood out, but only mildy, was the attention to detail with cleaning/prep of the room. The tub was clean, but could have been cleaner. For example, the corners of the tub were a little dirty and could have used a little more attention. The back of the microwave had a food stain I think could have been removed, etc. Again, these wouldn't stop me from recommending it or staying here again, but it's something for the management to keep in mind. The "downhill slide" often begins with a little slip!More</t>
   </si>
   <si>
-    <t>Mary H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r128412364-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2634,9 +2349,6 @@
     <t>Wonderful Room!  Great Bed!  Unbelieveable 1st Class Service from Tucker Hutto, Anna Wilke, Asst. Manager Krista Abernathy, and Manager Cindy McDaniel.  We had large wedding party and other guests in hotel were forced to remain in their rooms, but all the above staff went beyond the norm to get all of our wedding party guests rooms also!  All guests were so very happy and the service we received was extraordinary.  They even brought warm towels to our room! ROOMS ARE CLEAN CLEAN AND THE PLACE IS QUIET QUIET QUIET! We all had a wonderful stay and it was really the best sleep I have gotten in YEARS!!!  They assisted us with everything related to Wedding Jitters, to giving directions, and gave excellent advise of where to eat and have fun too!  They completely made it our home away from home!  I will make it a point to visit Weatherford  just so I can stay THERE again!!!! Fairfield Inn &amp; Suites should give a seminar to all hotels on customer service.  Also, one of the people in the group lost their ring and the Hotel found IT!!!!!  I can't say enough how much I love Fairfield Inn.  YOU ARE THE BEST!!!!! Easy to get to!  and not right on the highway, so it is very peaceful and grounds are beautiful too!!!!More</t>
   </si>
   <si>
-    <t>JBL09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r123895353-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2655,9 +2367,6 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>Cryoking</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r122999304-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2676,9 +2385,6 @@
     <t>I can't recall not being able to get 2 queens in the whole state of Texas (normal for the whole east coast), but the Fairfield in Weatherford has no queen beds. I generally get a king whenever possible, and also prefer the top floor. Was told that kings are on 1st and 2nd floor, and queens on top floor. Well- 2 full beds isn't the same as 2 queens. If you're as tall as I am, you don't fit in a full bed, and it makes for an uncomfortable night. Luckily the hotel was not full, and I changed to a king room. I would not recommend room 129, at least if it's cold outside. There is a gas generator (?) right outside the window. It powered on and off all night long, quite noisy. Breakfast was nominal- I've had better breakfasts @ other Fairfield Inns. Overall a decent stay, but nothing spectacular. Also at sometime during the night, someone attempted to steal fuel from my vehicle, which was out of view of the security camera. There are approximately 6 other hotels in the immediate area, and a co-worker had the same issue at another nearby hotel around 6 months ago, so be sure to be alert. Not a bad area, just not much around other than hotels, and a gas station w/a Burger King inside.More</t>
   </si>
   <si>
-    <t>Sharon D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r118092423-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2697,9 +2403,6 @@
     <t>September 2011</t>
   </si>
   <si>
-    <t>Leder1174</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r117848470-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2715,9 +2418,6 @@
     <t>Staff is very accommodating , rooms spotless, we did not pre book.  Informed front staff is helpful when looking for places to eat or shop.</t>
   </si>
   <si>
-    <t>Nik3300</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r114659189-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2731,17 +2431,14 @@
   </si>
   <si>
     <t>The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. 
-When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic...The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic and said that since it was a Sunday, the GM would not be in until Monday morning but for us to be sure and call back becuase we should get our room comped. We had booked a suite with double beds, since no king beds were available, and the couch pulled out into a bed since we had 2 children traveling with us. Since the hotel could not provide us with a new mattress for the couch bed, our children had to sleep with us. Needless to say, it was a very uncomfortable night as we paid and booked a room so the kids could sleep together and we could all have room. This was not the case!!When we checked out, all the hotel discounted the room was $20!! So for things in the mattress that were not supposed to be, kids sleeping with us that was not supposed to be, I feel that we should've gotten the room more heavily discounted than $20 if not free. When you pay for a room, you expect it to be clean and where you're not cramped  for sleeping arrangements. My husband called the GM the following Tues and told him that she was aware of what was on the mattress and that teenagers had stayed in the room prior to us and she couldn't be certain that it was bugs or crumbs. And she couldn't discount it anymore than the $20 that was...MoreShow less</t>
+When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic...The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic and said that since it was a Sunday, the GM would not be in until Monday morning but for us to be sure and call back becuase we should get our room comped. We had booked a suite with double beds, since no king beds were available, and the couch pulled out into a bed since we had 2 children traveling with us. Since the hotel could not provide us with a new mattress for the couch bed, our children had to sleep with us. Needless to say, it was a very uncomfortable night as we paid and booked a room so the kids could sleep together and we could all have room. This was not the case!!When we checked out, all the hotel discounted the room was $20!! So for things in the mattress that were not supposed to be, kids sleeping with us that was not supposed to be, I feel that we should've gotten the room more heavily discounted than $20 if not free. When you pay for a room, you expect it to be clean and where you're not cramped  for sleeping arrangements. My husband called the GM the following Tues and told him that she was aware of what was on the mattress and that teenagers had stayed in the room prior to us and she couldn't be certain that it was bugs or crumbs. And she couldn't discount it anymore than the $20 that was already credited. For a $120 room, this was not acceptable. Do not take a chance and stay at this hotel. There are several other new hotels right across the street from this one. Sorry Fairfield Inn, upper management needs to learn customer service! (I tried to upload the picture, but I keep getting an error that the file is too big)MoreShow less</t>
   </si>
   <si>
     <t>June 2011</t>
   </si>
   <si>
     <t>The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. 
-When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic...The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic and said that since it was a Sunday, the GM would not be in until Monday morning but for us to be sure and call back becuase we should get our room comped. We had booked a suite with double beds, since no king beds were available, and the couch pulled out into a bed since we had 2 children traveling with us. Since the hotel could not provide us with a new mattress for the couch bed, our children had to sleep with us. Needless to say, it was a very uncomfortable night as we paid and booked a room so the kids could sleep together and we could all have room. This was not the case!!When we checked out, all the hotel discounted the room was $20!! So for things in the mattress that were not supposed to be, kids sleeping with us that was not supposed to be, I feel that we should've gotten the room more heavily discounted than $20 if not free. When you pay for a room, you expect it to be clean and where you're not cramped  for sleeping arrangements. My husband called the GM the following Tues and told him that she was aware of what was on the mattress and that teenagers had stayed in the room prior to us and she couldn't be certain that it was bugs or crumbs. And she couldn't discount it anymore than the $20 that was...More</t>
-  </si>
-  <si>
-    <t>angelfitz</t>
+When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic...The hotel staff that we dealt with, besides upper management, was great and friendly. When we got settled in to the room for the night and pulled out the couch bed for the night, we noticed a lighter, and two small bugs and crumbs once the mattress was laid flat. We took a picture, went down to the front desk and my husband waited until there was no one around to tell him what we had found. We didn't want to discourage the other guests checking in. He was very apologetic about what was on the mattress and said that the hotel was fully booked and the cleaning staff had gone home for the night. We had told him that if he could just bring another mattress up that we could stay in that room but we just didn't want our children sleeping on that particular mattress nor did they want to. The front desk gentleman told us that since the cleaning crew was gone that we couldn't get another one delivered but he would definately note our account and advise the manager in the morning. When we were leaving the room, the head lady over the cleaning crew met us in the hallway and asked us if everything was okay. I had told her that actually it wasn't and told her what we had found and showed her the picture on our cell phone. She too was very apologetic and said that since it was a Sunday, the GM would not be in until Monday morning but for us to be sure and call back becuase we should get our room comped. We had booked a suite with double beds, since no king beds were available, and the couch pulled out into a bed since we had 2 children traveling with us. Since the hotel could not provide us with a new mattress for the couch bed, our children had to sleep with us. Needless to say, it was a very uncomfortable night as we paid and booked a room so the kids could sleep together and we could all have room. This was not the case!!When we checked out, all the hotel discounted the room was $20!! So for things in the mattress that were not supposed to be, kids sleeping with us that was not supposed to be, I feel that we should've gotten the room more heavily discounted than $20 if not free. When you pay for a room, you expect it to be clean and where you're not cramped  for sleeping arrangements. My husband called the GM the following Tues and told him that she was aware of what was on the mattress and that teenagers had stayed in the room prior to us and she couldn't be certain that it was bugs or crumbs. And she couldn't discount it anymore than the $20 that was already credited. For a $120 room, this was not acceptable. Do not take a chance and stay at this hotel. There are several other new hotels right across the street from this one. Sorry Fairfield Inn, upper management needs to learn customer service! (I tried to upload the picture, but I keep getting an error that the file is too big)More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r113832066-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -2762,9 +2459,6 @@
     <t>We arrived at the Fairfield Inn earlier than scheduled and hoped that we could check in  as we had a long work day ahead of us. Thankfully, the staff had our rooms ready and gave us our keys so that we could drop off our luggage. There was a slight problem with my check-in; however, the manager quickly handled the situation and upgraded me to a king suite along with offering several apologies for the inconvenience. You can judge a manager by the way he/she handles adversity and this manager certainly was on top of her game!The hotel is quiet, the breakfast is hot - or cold, depending on your preference - and the staff is super friendly and accommodating!More</t>
   </si>
   <si>
-    <t>tpshooz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r102557543-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2783,9 +2477,6 @@
     <t>March 2011</t>
   </si>
   <si>
-    <t>wclon157</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r98291615-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2807,9 +2498,6 @@
     <t>i stayed at this hotel for 3 nights on business. the hotel was in a word, wonderful. when i first walked in i knoticed how clean and beautiful the lobby was. the young gentleman, weston, who was working at the front desk was very nice and check in was a very quick and easy. after venturing to my room i was amazed by the quality and effort obviously put into cleaning the room. after getting setteled i decided i would enjoy a bite to eat. i asked weston about some of the local places to dine in. he gave me a few recomendations and after picking one he printed me directions from the hotel to the diner. and also took the time to expain the construction and how to get through it without to much hassle. in the morning at breakfast i was delighted to see that they had biscuits &amp; gravy as well as a waffle maker. tedra, the woman working breakfast was very quick and courteous. taking the time to make sure that all the guests needcs were met. over all this was one of the most enjoyable experiences i have had in a hotel while travling for business in a long time. Would i return to this hotel for any type of leasure? the answer is simple i already made the reservations and cant wait to come back!More</t>
   </si>
   <si>
-    <t>AussieinTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r96605775-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -2826,9 +2514,6 @@
   </si>
   <si>
     <t>I stayed here with my husband the weekend of12/13th Feb. The only minor issue we had was that when we went to check-in there was no-one at the desk. We waited for about five mins, then my husband even tried calling the hotel's number which went unanswered. Like I said - minor issue - when we came back again 5 mins we were checked in with no problems.The hotel common areas (eg lobby, elevators, etc) were very clean. Our room itself was spotless! We had a whirlpool king room - the 2 person whirlpool was great - very deep, filled up quicky and plenty of hot water. Extremely comfy bed and pillows and great channels on the huge flat screen TV. Staff were friendly - especially the lady taking care of the breakfast area on Sunday morning. Even though we came down to eat just as she was starting to pack up she made sure we still got everything we wanted. Overall this is a very clean hotel in a good location (far enough away from the interstate to not hear any traffic, but still easy to get to). I especially appreciated the value ($40 - $80/night cheaper than equivalent rooms at other hotels), but the quality of the room doesn't make you feel like you paid less. Would definitely stay here again if ever in the area.More</t>
-  </si>
-  <si>
-    <t>traciwil3087</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d1382094-r32060041-Fairfield_Inn_Suites_Weatherford-Weatherford_Texas.html</t>
@@ -3356,32 +3041,28 @@
       <c r="A2" t="n">
         <v>58684</v>
       </c>
-      <c r="B2" t="n">
-        <v>6040</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>49</v>
@@ -3423,38 +3104,34 @@
       <c r="A3" t="n">
         <v>58684</v>
       </c>
-      <c r="B3" t="n">
-        <v>1099</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -3463,7 +3140,7 @@
         <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3477,45 +3154,41 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>58684</v>
       </c>
-      <c r="B4" t="n">
-        <v>1579</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -3524,7 +3197,7 @@
         <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3538,51 +3211,47 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>58684</v>
       </c>
-      <c r="B5" t="n">
-        <v>137090</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
@@ -3601,57 +3270,53 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>58684</v>
       </c>
-      <c r="B6" t="n">
-        <v>19606</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
@@ -3666,57 +3331,53 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>58684</v>
       </c>
-      <c r="B7" t="n">
-        <v>137091</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>93</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
@@ -3737,60 +3398,56 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>58684</v>
       </c>
-      <c r="B8" t="n">
-        <v>37597</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3802,57 +3459,53 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>58684</v>
       </c>
-      <c r="B9" t="n">
-        <v>137092</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
         <v>52</v>
@@ -3867,60 +3520,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" t="s">
         <v>104</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>58684</v>
       </c>
-      <c r="B10" t="n">
-        <v>137093</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3938,57 +3587,53 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>58684</v>
       </c>
-      <c r="B11" t="n">
-        <v>137094</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
@@ -4007,60 +3652,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>58684</v>
       </c>
-      <c r="B12" t="n">
-        <v>41421</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -4078,51 +3719,47 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>58684</v>
       </c>
-      <c r="B13" t="n">
-        <v>137095</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -4139,57 +3776,53 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>58684</v>
       </c>
-      <c r="B14" t="n">
-        <v>137096</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
@@ -4204,60 +3837,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>58684</v>
       </c>
-      <c r="B15" t="n">
-        <v>137097</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -4275,57 +3904,53 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>58684</v>
       </c>
-      <c r="B16" t="n">
-        <v>14158</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
@@ -4340,60 +3965,56 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>58684</v>
       </c>
-      <c r="B17" t="n">
-        <v>94952</v>
-      </c>
-      <c r="C17" t="s">
-        <v>179</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4405,60 +4026,56 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>58684</v>
       </c>
-      <c r="B18" t="n">
-        <v>137098</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4470,60 +4087,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>58684</v>
       </c>
-      <c r="B19" t="n">
-        <v>7852</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4535,57 +4148,53 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>58684</v>
       </c>
-      <c r="B20" t="n">
-        <v>137099</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
         <v>52</v>
@@ -4604,60 +4213,56 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="Y20" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>58684</v>
       </c>
-      <c r="B21" t="n">
-        <v>137100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="J21" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4675,60 +4280,56 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>58684</v>
       </c>
-      <c r="B22" t="n">
-        <v>137101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>227</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4740,57 +4341,53 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>58684</v>
       </c>
-      <c r="B23" t="n">
-        <v>137102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>237</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
@@ -4805,57 +4402,53 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>58684</v>
       </c>
-      <c r="B24" t="n">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
         <v>52</v>
@@ -4870,60 +4463,56 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>58684</v>
       </c>
-      <c r="B25" t="n">
-        <v>137103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4935,57 +4524,53 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>58684</v>
       </c>
-      <c r="B26" t="n">
-        <v>4161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
@@ -5000,60 +4585,56 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="X26" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>58684</v>
       </c>
-      <c r="B27" t="n">
-        <v>137104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>275</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -5069,60 +4650,56 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>58684</v>
       </c>
-      <c r="B28" t="n">
-        <v>136986</v>
-      </c>
-      <c r="C28" t="s">
-        <v>285</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -5138,60 +4715,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="X28" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="Y28" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>58684</v>
       </c>
-      <c r="B29" t="n">
-        <v>544</v>
-      </c>
-      <c r="C29" t="s">
-        <v>292</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -5207,60 +4780,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="X29" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="Y29" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>58684</v>
       </c>
-      <c r="B30" t="n">
-        <v>44884</v>
-      </c>
-      <c r="C30" t="s">
-        <v>301</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -5278,57 +4847,53 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="X30" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>58684</v>
       </c>
-      <c r="B31" t="n">
-        <v>137105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>310</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
         <v>52</v>
@@ -5343,60 +4908,56 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>58684</v>
       </c>
-      <c r="B32" t="n">
-        <v>137106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>320</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5408,60 +4969,56 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="X32" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="Y32" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>58684</v>
       </c>
-      <c r="B33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="C33" t="s">
-        <v>329</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="J33" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="K33" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="O33" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5473,60 +5030,56 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="X33" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="Y33" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>58684</v>
       </c>
-      <c r="B34" t="n">
-        <v>137107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>338</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5538,51 +5091,47 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="X34" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="Y34" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>58684</v>
       </c>
-      <c r="B35" t="n">
-        <v>137108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>348</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="J35" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="K35" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -5599,60 +5148,56 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>58684</v>
       </c>
-      <c r="B36" t="n">
-        <v>137109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>357</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="J36" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="K36" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5664,57 +5209,53 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>58684</v>
       </c>
-      <c r="B37" t="n">
-        <v>137110</v>
-      </c>
-      <c r="C37" t="s">
-        <v>365</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="J37" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s">
         <v>52</v>
@@ -5729,60 +5270,56 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="X37" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="Y37" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>58684</v>
       </c>
-      <c r="B38" t="n">
-        <v>137111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>374</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5794,60 +5331,56 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="X38" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="Y38" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>58684</v>
       </c>
-      <c r="B39" t="n">
-        <v>137112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>381</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5859,60 +5392,56 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="X39" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>58684</v>
       </c>
-      <c r="B40" t="n">
-        <v>137113</v>
-      </c>
-      <c r="C40" t="s">
-        <v>390</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="O40" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5924,57 +5453,53 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="X40" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>58684</v>
       </c>
-      <c r="B41" t="n">
-        <v>11999</v>
-      </c>
-      <c r="C41" t="s">
-        <v>400</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>403</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
         <v>52</v>
@@ -5995,60 +5520,56 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="X41" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="Y41" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>58684</v>
       </c>
-      <c r="B42" t="n">
-        <v>39760</v>
-      </c>
-      <c r="C42" t="s">
-        <v>410</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -6066,57 +5587,53 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="X42" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="Y42" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>58684</v>
       </c>
-      <c r="B43" t="n">
-        <v>137114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>419</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="J43" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="K43" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="O43" t="s">
         <v>52</v>
@@ -6131,60 +5648,56 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="X43" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>58684</v>
       </c>
-      <c r="B44" t="n">
-        <v>137115</v>
-      </c>
-      <c r="C44" t="s">
-        <v>428</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="J44" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="K44" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -6200,60 +5713,56 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="X44" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="Y44" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>58684</v>
       </c>
-      <c r="B45" t="n">
-        <v>137116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>438</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="J45" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="O45" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="n">
@@ -6271,60 +5780,56 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>444</v>
+        <v>401</v>
       </c>
       <c r="X45" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="Y45" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>58684</v>
       </c>
-      <c r="B46" t="n">
-        <v>137117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>447</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="J46" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="K46" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="L46" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -6342,57 +5847,53 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="X46" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="Y46" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>58684</v>
       </c>
-      <c r="B47" t="n">
-        <v>137118</v>
-      </c>
-      <c r="C47" t="s">
-        <v>456</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="J47" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="K47" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="L47" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s">
         <v>52</v>
@@ -6407,57 +5908,53 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="X47" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="Y47" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>58684</v>
       </c>
-      <c r="B48" t="n">
-        <v>137119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>465</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="J48" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
         <v>423</v>
       </c>
-      <c r="L48" t="s">
-        <v>469</v>
-      </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="O48" t="s">
         <v>52</v>
@@ -6472,57 +5969,53 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="X48" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="Y48" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>58684</v>
       </c>
-      <c r="B49" t="n">
-        <v>137120</v>
-      </c>
-      <c r="C49" t="s">
-        <v>474</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>475</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="J49" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="K49" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="L49" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
         <v>52</v>
@@ -6543,57 +6036,53 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
       <c r="X49" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="Y49" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>58684</v>
       </c>
-      <c r="B50" t="n">
-        <v>137121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>483</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>484</v>
+        <v>436</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>485</v>
+        <v>437</v>
       </c>
       <c r="J50" t="s">
-        <v>486</v>
+        <v>438</v>
       </c>
       <c r="K50" t="s">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="L50" t="s">
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="O50" t="s">
         <v>52</v>
@@ -6608,57 +6097,53 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="X50" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="Y50" t="s">
-        <v>491</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>58684</v>
       </c>
-      <c r="B51" t="n">
-        <v>137122</v>
-      </c>
-      <c r="C51" t="s">
-        <v>492</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>493</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="J51" t="s">
-        <v>495</v>
+        <v>446</v>
       </c>
       <c r="K51" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="L51" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="O51" t="s">
         <v>52</v>
@@ -6679,60 +6164,56 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>489</v>
+        <v>441</v>
       </c>
       <c r="X51" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="Y51" t="s">
-        <v>498</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>58684</v>
       </c>
-      <c r="B52" t="n">
-        <v>137123</v>
-      </c>
-      <c r="C52" t="s">
-        <v>499</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="J52" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="K52" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="O52" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6750,60 +6231,56 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="X52" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="Y52" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>58684</v>
       </c>
-      <c r="B53" t="n">
-        <v>2537</v>
-      </c>
-      <c r="C53" t="s">
-        <v>508</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>509</v>
+        <v>458</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>512</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s">
-        <v>513</v>
+        <v>462</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="O53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6815,60 +6292,56 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>515</v>
+        <v>464</v>
       </c>
       <c r="X53" t="s">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="Y53" t="s">
-        <v>517</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>58684</v>
       </c>
-      <c r="B54" t="n">
-        <v>21960</v>
-      </c>
-      <c r="C54" t="s">
-        <v>518</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>519</v>
+        <v>467</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>520</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s">
-        <v>521</v>
+        <v>469</v>
       </c>
       <c r="K54" t="s">
-        <v>522</v>
+        <v>470</v>
       </c>
       <c r="L54" t="s">
-        <v>523</v>
+        <v>471</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6880,60 +6353,56 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>524</v>
+        <v>472</v>
       </c>
       <c r="X54" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="Y54" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>58684</v>
       </c>
-      <c r="B55" t="n">
-        <v>137124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>527</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="J55" t="s">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="K55" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="L55" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="O55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6951,60 +6420,56 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="X55" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="Y55" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>58684</v>
       </c>
-      <c r="B56" t="n">
-        <v>27302</v>
-      </c>
-      <c r="C56" t="s">
-        <v>536</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="J56" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="K56" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>514</v>
+        <v>463</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -7022,57 +6487,53 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="X56" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="Y56" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>58684</v>
       </c>
-      <c r="B57" t="n">
-        <v>18650</v>
-      </c>
-      <c r="C57" t="s">
-        <v>545</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>546</v>
+        <v>491</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>547</v>
+        <v>492</v>
       </c>
       <c r="J57" t="s">
-        <v>548</v>
+        <v>493</v>
       </c>
       <c r="K57" t="s">
-        <v>549</v>
+        <v>494</v>
       </c>
       <c r="L57" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="O57" t="s">
         <v>52</v>
@@ -7093,57 +6554,53 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="X57" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="Y57" t="s">
-        <v>554</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>58684</v>
       </c>
-      <c r="B58" t="n">
-        <v>17117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>555</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="J58" t="s">
-        <v>558</v>
+        <v>502</v>
       </c>
       <c r="K58" t="s">
-        <v>559</v>
+        <v>503</v>
       </c>
       <c r="L58" t="s">
-        <v>560</v>
+        <v>504</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="O58" t="s">
         <v>52</v>
@@ -7164,51 +6621,47 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>561</v>
+        <v>505</v>
       </c>
       <c r="X58" t="s">
-        <v>562</v>
+        <v>506</v>
       </c>
       <c r="Y58" t="s">
-        <v>563</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58684</v>
       </c>
-      <c r="B59" t="n">
-        <v>137125</v>
-      </c>
-      <c r="C59" t="s">
-        <v>564</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="J59" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="K59" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="L59" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -7225,60 +6678,56 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="X59" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="Y59" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>58684</v>
       </c>
-      <c r="B60" t="n">
-        <v>137126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>573</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="J60" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="L60" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="O60" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -7296,51 +6745,47 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="X60" t="s">
-        <v>581</v>
+        <v>523</v>
       </c>
       <c r="Y60" t="s">
-        <v>582</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>58684</v>
       </c>
-      <c r="B61" t="n">
-        <v>16829</v>
-      </c>
-      <c r="C61" t="s">
-        <v>583</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>584</v>
+        <v>525</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>585</v>
+        <v>526</v>
       </c>
       <c r="J61" t="s">
-        <v>586</v>
+        <v>527</v>
       </c>
       <c r="K61" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="L61" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -7357,60 +6802,56 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="X61" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="Y61" t="s">
-        <v>591</v>
+        <v>532</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>58684</v>
       </c>
-      <c r="B62" t="n">
-        <v>137127</v>
-      </c>
-      <c r="C62" t="s">
-        <v>592</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="J62" t="s">
-        <v>595</v>
+        <v>535</v>
       </c>
       <c r="K62" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="L62" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="O62" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7428,57 +6869,53 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="X62" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="Y62" t="s">
-        <v>600</v>
+        <v>540</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>58684</v>
       </c>
-      <c r="B63" t="n">
-        <v>20511</v>
-      </c>
-      <c r="C63" t="s">
-        <v>601</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>603</v>
+        <v>542</v>
       </c>
       <c r="J63" t="s">
-        <v>604</v>
+        <v>543</v>
       </c>
       <c r="K63" t="s">
-        <v>605</v>
+        <v>544</v>
       </c>
       <c r="L63" t="s">
-        <v>606</v>
+        <v>545</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="O63" t="s">
         <v>52</v>
@@ -7499,60 +6936,56 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>598</v>
+        <v>538</v>
       </c>
       <c r="X63" t="s">
-        <v>599</v>
+        <v>539</v>
       </c>
       <c r="Y63" t="s">
-        <v>608</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>58684</v>
       </c>
-      <c r="B64" t="n">
-        <v>32928</v>
-      </c>
-      <c r="C64" t="s">
-        <v>609</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>610</v>
+        <v>548</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="J64" t="s">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="K64" t="s">
-        <v>613</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7564,51 +6997,47 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>616</v>
+        <v>554</v>
       </c>
       <c r="X64" t="s">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="Y64" t="s">
-        <v>618</v>
+        <v>556</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>58684</v>
       </c>
-      <c r="B65" t="n">
-        <v>137128</v>
-      </c>
-      <c r="C65" t="s">
-        <v>619</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>620</v>
+        <v>557</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>621</v>
+        <v>558</v>
       </c>
       <c r="J65" t="s">
-        <v>622</v>
+        <v>559</v>
       </c>
       <c r="K65" t="s">
-        <v>623</v>
+        <v>560</v>
       </c>
       <c r="L65" t="s">
-        <v>624</v>
+        <v>561</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -7625,60 +7054,56 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>625</v>
+        <v>562</v>
       </c>
       <c r="X65" t="s">
-        <v>626</v>
+        <v>563</v>
       </c>
       <c r="Y65" t="s">
-        <v>627</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>58684</v>
       </c>
-      <c r="B66" t="n">
-        <v>137129</v>
-      </c>
-      <c r="C66" t="s">
-        <v>628</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>629</v>
+        <v>565</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>630</v>
+        <v>566</v>
       </c>
       <c r="J66" t="s">
-        <v>631</v>
+        <v>567</v>
       </c>
       <c r="K66" t="s">
-        <v>632</v>
+        <v>568</v>
       </c>
       <c r="L66" t="s">
-        <v>633</v>
+        <v>569</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>634</v>
+        <v>570</v>
       </c>
       <c r="O66" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7690,57 +7115,53 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>635</v>
+        <v>571</v>
       </c>
       <c r="X66" t="s">
-        <v>636</v>
+        <v>572</v>
       </c>
       <c r="Y66" t="s">
-        <v>637</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>58684</v>
       </c>
-      <c r="B67" t="n">
-        <v>137130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>638</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>639</v>
+        <v>574</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>640</v>
+        <v>575</v>
       </c>
       <c r="J67" t="s">
-        <v>641</v>
+        <v>576</v>
       </c>
       <c r="K67" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="L67" t="s">
-        <v>643</v>
+        <v>578</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="O67" t="s">
         <v>52</v>
@@ -7759,57 +7180,53 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>645</v>
+        <v>580</v>
       </c>
       <c r="X67" t="s">
-        <v>646</v>
+        <v>581</v>
       </c>
       <c r="Y67" t="s">
-        <v>647</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>58684</v>
       </c>
-      <c r="B68" t="n">
-        <v>74330</v>
-      </c>
-      <c r="C68" t="s">
-        <v>648</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>650</v>
+        <v>584</v>
       </c>
       <c r="J68" t="s">
-        <v>651</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="L68" t="s">
-        <v>653</v>
+        <v>587</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="O68" t="s">
         <v>52</v>
@@ -7834,60 +7251,56 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>654</v>
+        <v>588</v>
       </c>
       <c r="X68" t="s">
-        <v>655</v>
+        <v>589</v>
       </c>
       <c r="Y68" t="s">
-        <v>656</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>58684</v>
       </c>
-      <c r="B69" t="n">
-        <v>76796</v>
-      </c>
-      <c r="C69" t="s">
-        <v>657</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>658</v>
+        <v>591</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="J69" t="s">
-        <v>660</v>
+        <v>593</v>
       </c>
       <c r="K69" t="s">
-        <v>661</v>
+        <v>594</v>
       </c>
       <c r="L69" t="s">
-        <v>662</v>
+        <v>595</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>663</v>
+        <v>596</v>
       </c>
       <c r="O69" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7903,51 +7316,47 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>664</v>
+        <v>597</v>
       </c>
       <c r="X69" t="s">
-        <v>665</v>
+        <v>598</v>
       </c>
       <c r="Y69" t="s">
-        <v>666</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>58684</v>
       </c>
-      <c r="B70" t="n">
-        <v>15985</v>
-      </c>
-      <c r="C70" t="s">
-        <v>667</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>669</v>
+        <v>601</v>
       </c>
       <c r="J70" t="s">
-        <v>670</v>
+        <v>602</v>
       </c>
       <c r="K70" t="s">
-        <v>671</v>
+        <v>603</v>
       </c>
       <c r="L70" t="s">
-        <v>672</v>
+        <v>604</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
@@ -7974,51 +7383,47 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>673</v>
+        <v>605</v>
       </c>
       <c r="X70" t="s">
-        <v>674</v>
+        <v>606</v>
       </c>
       <c r="Y70" t="s">
-        <v>675</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>58684</v>
       </c>
-      <c r="B71" t="n">
-        <v>137131</v>
-      </c>
-      <c r="C71" t="s">
-        <v>676</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>677</v>
+        <v>608</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>678</v>
+        <v>609</v>
       </c>
       <c r="J71" t="s">
-        <v>679</v>
+        <v>610</v>
       </c>
       <c r="K71" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
       <c r="L71" t="s">
-        <v>681</v>
+        <v>612</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -8045,60 +7450,56 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>682</v>
+        <v>613</v>
       </c>
       <c r="X71" t="s">
-        <v>683</v>
+        <v>614</v>
       </c>
       <c r="Y71" t="s">
-        <v>684</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>58684</v>
       </c>
-      <c r="B72" t="n">
-        <v>136997</v>
-      </c>
-      <c r="C72" t="s">
-        <v>685</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>686</v>
+        <v>616</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>687</v>
+        <v>617</v>
       </c>
       <c r="J72" t="s">
-        <v>688</v>
+        <v>618</v>
       </c>
       <c r="K72" t="s">
-        <v>689</v>
+        <v>619</v>
       </c>
       <c r="L72" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>691</v>
+        <v>621</v>
       </c>
       <c r="O72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -8120,60 +7521,56 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>692</v>
+        <v>622</v>
       </c>
       <c r="X72" t="s">
-        <v>693</v>
+        <v>623</v>
       </c>
       <c r="Y72" t="s">
-        <v>694</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>58684</v>
       </c>
-      <c r="B73" t="n">
-        <v>137111</v>
-      </c>
-      <c r="C73" t="s">
-        <v>381</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>695</v>
+        <v>625</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>696</v>
+        <v>626</v>
       </c>
       <c r="J73" t="s">
-        <v>697</v>
+        <v>627</v>
       </c>
       <c r="K73" t="s">
-        <v>698</v>
+        <v>628</v>
       </c>
       <c r="L73" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="O73" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -8185,51 +7582,47 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>701</v>
+        <v>631</v>
       </c>
       <c r="X73" t="s">
-        <v>702</v>
+        <v>632</v>
       </c>
       <c r="Y73" t="s">
-        <v>703</v>
+        <v>633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>58684</v>
       </c>
-      <c r="B74" t="n">
-        <v>137132</v>
-      </c>
-      <c r="C74" t="s">
-        <v>704</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>705</v>
+        <v>634</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>706</v>
+        <v>635</v>
       </c>
       <c r="J74" t="s">
-        <v>707</v>
+        <v>636</v>
       </c>
       <c r="K74" t="s">
-        <v>708</v>
+        <v>637</v>
       </c>
       <c r="L74" t="s">
-        <v>709</v>
+        <v>638</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -8248,51 +7641,47 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>709</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>58684</v>
       </c>
-      <c r="B75" t="n">
-        <v>137133</v>
-      </c>
-      <c r="C75" t="s">
-        <v>710</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>711</v>
+        <v>639</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>712</v>
+        <v>640</v>
       </c>
       <c r="J75" t="s">
-        <v>713</v>
+        <v>641</v>
       </c>
       <c r="K75" t="s">
-        <v>714</v>
+        <v>642</v>
       </c>
       <c r="L75" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>716</v>
+        <v>644</v>
       </c>
       <c r="O75" t="s">
         <v>52</v>
@@ -8319,51 +7708,47 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>715</v>
+        <v>643</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>58684</v>
       </c>
-      <c r="B76" t="n">
-        <v>137134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>717</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>718</v>
+        <v>645</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>719</v>
+        <v>646</v>
       </c>
       <c r="J76" t="s">
-        <v>720</v>
+        <v>647</v>
       </c>
       <c r="K76" t="s">
-        <v>721</v>
+        <v>648</v>
       </c>
       <c r="L76" t="s">
-        <v>722</v>
+        <v>649</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="O76" t="s">
         <v>52</v>
@@ -8380,54 +7765,50 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>722</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>58684</v>
       </c>
-      <c r="B77" t="n">
-        <v>19549</v>
-      </c>
-      <c r="C77" t="s">
-        <v>724</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>725</v>
+        <v>651</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>726</v>
+        <v>652</v>
       </c>
       <c r="J77" t="s">
-        <v>727</v>
+        <v>653</v>
       </c>
       <c r="K77" t="s">
-        <v>728</v>
+        <v>654</v>
       </c>
       <c r="L77" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>730</v>
+        <v>656</v>
       </c>
       <c r="O77" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -8441,45 +7822,41 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>729</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>58684</v>
       </c>
-      <c r="B78" t="n">
-        <v>137135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>731</v>
-      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F78" t="s">
-        <v>732</v>
+        <v>657</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>733</v>
+        <v>658</v>
       </c>
       <c r="J78" t="s">
-        <v>734</v>
+        <v>659</v>
       </c>
       <c r="K78" t="s">
-        <v>735</v>
+        <v>660</v>
       </c>
       <c r="L78" t="s">
-        <v>736</v>
+        <v>661</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
@@ -8508,45 +7885,41 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>736</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>58684</v>
       </c>
-      <c r="B79" t="n">
-        <v>137136</v>
-      </c>
-      <c r="C79" t="s">
-        <v>737</v>
-      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>738</v>
+        <v>662</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I79" t="s">
-        <v>739</v>
+        <v>663</v>
       </c>
       <c r="J79" t="s">
-        <v>740</v>
+        <v>664</v>
       </c>
       <c r="K79" t="s">
-        <v>741</v>
+        <v>665</v>
       </c>
       <c r="L79" t="s">
-        <v>742</v>
+        <v>666</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -8575,54 +7948,50 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>742</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>58684</v>
       </c>
-      <c r="B80" t="n">
-        <v>14545</v>
-      </c>
-      <c r="C80" t="s">
-        <v>743</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>744</v>
+        <v>667</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I80" t="s">
-        <v>745</v>
+        <v>668</v>
       </c>
       <c r="J80" t="s">
-        <v>746</v>
+        <v>669</v>
       </c>
       <c r="K80" t="s">
-        <v>747</v>
+        <v>670</v>
       </c>
       <c r="L80" t="s">
-        <v>748</v>
+        <v>671</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>749</v>
+        <v>672</v>
       </c>
       <c r="O80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8646,51 +8015,47 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>748</v>
+        <v>671</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>58684</v>
       </c>
-      <c r="B81" t="n">
-        <v>137137</v>
-      </c>
-      <c r="C81" t="s">
-        <v>750</v>
-      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>751</v>
+        <v>673</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I81" t="s">
-        <v>752</v>
+        <v>674</v>
       </c>
       <c r="J81" t="s">
-        <v>753</v>
+        <v>675</v>
       </c>
       <c r="K81" t="s">
-        <v>754</v>
+        <v>676</v>
       </c>
       <c r="L81" t="s">
-        <v>755</v>
+        <v>677</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>723</v>
+        <v>650</v>
       </c>
       <c r="O81" t="s">
         <v>52</v>
@@ -8717,54 +8082,50 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>755</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>58684</v>
       </c>
-      <c r="B82" t="n">
-        <v>137138</v>
-      </c>
-      <c r="C82" t="s">
-        <v>756</v>
-      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F82" t="s">
-        <v>757</v>
+        <v>678</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I82" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J82" t="s">
-        <v>759</v>
+        <v>680</v>
       </c>
       <c r="K82" t="s">
-        <v>760</v>
+        <v>681</v>
       </c>
       <c r="L82" t="s">
-        <v>761</v>
+        <v>682</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>762</v>
+        <v>683</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8778,54 +8139,50 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>763</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>58684</v>
       </c>
-      <c r="B83" t="n">
-        <v>31990</v>
-      </c>
-      <c r="C83" t="s">
-        <v>764</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>765</v>
+        <v>685</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I83" t="s">
-        <v>766</v>
+        <v>686</v>
       </c>
       <c r="J83" t="s">
-        <v>767</v>
+        <v>687</v>
       </c>
       <c r="K83" t="s">
-        <v>768</v>
+        <v>688</v>
       </c>
       <c r="L83" t="s">
-        <v>769</v>
+        <v>689</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>770</v>
+        <v>690</v>
       </c>
       <c r="O83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8849,51 +8206,47 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>769</v>
+        <v>689</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>58684</v>
       </c>
-      <c r="B84" t="n">
-        <v>3412</v>
-      </c>
-      <c r="C84" t="s">
-        <v>771</v>
-      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>772</v>
+        <v>691</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I84" t="s">
-        <v>773</v>
+        <v>692</v>
       </c>
       <c r="J84" t="s">
-        <v>774</v>
+        <v>693</v>
       </c>
       <c r="K84" t="s">
-        <v>775</v>
+        <v>694</v>
       </c>
       <c r="L84" t="s">
-        <v>776</v>
+        <v>695</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>777</v>
+        <v>696</v>
       </c>
       <c r="O84" t="s">
         <v>52</v>
@@ -8920,45 +8273,41 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>776</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>58684</v>
       </c>
-      <c r="B85" t="n">
-        <v>137139</v>
-      </c>
-      <c r="C85" t="s">
-        <v>778</v>
-      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>779</v>
+        <v>697</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>780</v>
+        <v>698</v>
       </c>
       <c r="J85" t="s">
-        <v>781</v>
+        <v>699</v>
       </c>
       <c r="K85" t="s">
-        <v>782</v>
+        <v>700</v>
       </c>
       <c r="L85" t="s">
-        <v>783</v>
+        <v>701</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -8987,54 +8336,50 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>783</v>
+        <v>701</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>58684</v>
       </c>
-      <c r="B86" t="n">
-        <v>137140</v>
-      </c>
-      <c r="C86" t="s">
-        <v>784</v>
-      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>785</v>
+        <v>702</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I86" t="s">
-        <v>786</v>
+        <v>703</v>
       </c>
       <c r="J86" t="s">
-        <v>787</v>
+        <v>704</v>
       </c>
       <c r="K86" t="s">
-        <v>788</v>
+        <v>705</v>
       </c>
       <c r="L86" t="s">
-        <v>789</v>
+        <v>706</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>790</v>
+        <v>707</v>
       </c>
       <c r="O86" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -9056,51 +8401,47 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>791</v>
+        <v>708</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>58684</v>
       </c>
-      <c r="B87" t="n">
-        <v>15601</v>
-      </c>
-      <c r="C87" t="s">
-        <v>792</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>793</v>
+        <v>709</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I87" t="s">
-        <v>794</v>
+        <v>710</v>
       </c>
       <c r="J87" t="s">
-        <v>795</v>
+        <v>711</v>
       </c>
       <c r="K87" t="s">
-        <v>796</v>
+        <v>712</v>
       </c>
       <c r="L87" t="s">
-        <v>797</v>
+        <v>713</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>790</v>
+        <v>707</v>
       </c>
       <c r="O87" t="s">
         <v>52</v>
@@ -9127,54 +8468,50 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>798</v>
+        <v>714</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>58684</v>
       </c>
-      <c r="B88" t="n">
-        <v>137141</v>
-      </c>
-      <c r="C88" t="s">
-        <v>799</v>
-      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F88" t="s">
-        <v>800</v>
+        <v>715</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I88" t="s">
-        <v>801</v>
+        <v>716</v>
       </c>
       <c r="J88" t="s">
-        <v>802</v>
+        <v>717</v>
       </c>
       <c r="K88" t="s">
-        <v>803</v>
+        <v>718</v>
       </c>
       <c r="L88" t="s">
-        <v>804</v>
+        <v>719</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="O88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -9198,45 +8535,41 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>804</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>58684</v>
       </c>
-      <c r="B89" t="n">
-        <v>137142</v>
-      </c>
-      <c r="C89" t="s">
-        <v>806</v>
-      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F89" t="s">
-        <v>807</v>
+        <v>721</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I89" t="s">
-        <v>808</v>
+        <v>722</v>
       </c>
       <c r="J89" t="s">
-        <v>809</v>
+        <v>723</v>
       </c>
       <c r="K89" t="s">
-        <v>810</v>
+        <v>724</v>
       </c>
       <c r="L89" t="s">
-        <v>811</v>
+        <v>725</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
@@ -9265,54 +8598,50 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>811</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>58684</v>
       </c>
-      <c r="B90" t="n">
-        <v>137143</v>
-      </c>
-      <c r="C90" t="s">
-        <v>812</v>
-      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F90" t="s">
-        <v>813</v>
+        <v>726</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I90" t="s">
-        <v>814</v>
+        <v>727</v>
       </c>
       <c r="J90" t="s">
-        <v>815</v>
+        <v>728</v>
       </c>
       <c r="K90" t="s">
-        <v>816</v>
+        <v>729</v>
       </c>
       <c r="L90" t="s">
-        <v>817</v>
+        <v>730</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>818</v>
+        <v>731</v>
       </c>
       <c r="O90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -9336,45 +8665,41 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>817</v>
+        <v>730</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>58684</v>
       </c>
-      <c r="B91" t="n">
-        <v>137144</v>
-      </c>
-      <c r="C91" t="s">
-        <v>819</v>
-      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>820</v>
+        <v>732</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I91" t="s">
-        <v>821</v>
+        <v>733</v>
       </c>
       <c r="J91" t="s">
-        <v>822</v>
+        <v>734</v>
       </c>
       <c r="K91" t="s">
-        <v>823</v>
+        <v>735</v>
       </c>
       <c r="L91" t="s">
-        <v>824</v>
+        <v>736</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
@@ -9403,54 +8728,50 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>824</v>
+        <v>736</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>58684</v>
       </c>
-      <c r="B92" t="n">
-        <v>137145</v>
-      </c>
-      <c r="C92" t="s">
-        <v>825</v>
-      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F92" t="s">
-        <v>826</v>
+        <v>737</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I92" t="s">
-        <v>827</v>
+        <v>738</v>
       </c>
       <c r="J92" t="s">
-        <v>828</v>
+        <v>739</v>
       </c>
       <c r="K92" t="s">
-        <v>829</v>
+        <v>740</v>
       </c>
       <c r="L92" t="s">
-        <v>830</v>
+        <v>741</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>831</v>
+        <v>742</v>
       </c>
       <c r="O92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -9474,51 +8795,47 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>830</v>
+        <v>741</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>58684</v>
       </c>
-      <c r="B93" t="n">
-        <v>17270</v>
-      </c>
-      <c r="C93" t="s">
-        <v>832</v>
-      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s">
-        <v>833</v>
+        <v>743</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I93" t="s">
-        <v>834</v>
+        <v>744</v>
       </c>
       <c r="J93" t="s">
-        <v>835</v>
+        <v>745</v>
       </c>
       <c r="K93" t="s">
-        <v>836</v>
+        <v>746</v>
       </c>
       <c r="L93" t="s">
-        <v>837</v>
+        <v>747</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="O93" t="s">
         <v>52</v>
@@ -9545,51 +8862,47 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>58684</v>
       </c>
-      <c r="B94" t="n">
-        <v>137146</v>
-      </c>
-      <c r="C94" t="s">
-        <v>840</v>
-      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>841</v>
+        <v>750</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I94" t="s">
-        <v>842</v>
+        <v>751</v>
       </c>
       <c r="J94" t="s">
-        <v>835</v>
+        <v>745</v>
       </c>
       <c r="K94" t="s">
-        <v>843</v>
+        <v>752</v>
       </c>
       <c r="L94" t="s">
-        <v>844</v>
+        <v>753</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="O94" t="s">
         <v>52</v>
@@ -9616,54 +8929,50 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>844</v>
+        <v>753</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>58684</v>
       </c>
-      <c r="B95" t="n">
-        <v>137147</v>
-      </c>
-      <c r="C95" t="s">
-        <v>845</v>
-      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>846</v>
+        <v>754</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I95" t="s">
-        <v>847</v>
+        <v>755</v>
       </c>
       <c r="J95" t="s">
-        <v>848</v>
+        <v>756</v>
       </c>
       <c r="K95" t="s">
-        <v>849</v>
+        <v>757</v>
       </c>
       <c r="L95" t="s">
-        <v>850</v>
+        <v>758</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="O95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -9677,51 +8986,47 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>850</v>
+        <v>758</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>58684</v>
       </c>
-      <c r="B96" t="n">
-        <v>137148</v>
-      </c>
-      <c r="C96" t="s">
-        <v>851</v>
-      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>852</v>
+        <v>759</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I96" t="s">
-        <v>853</v>
+        <v>760</v>
       </c>
       <c r="J96" t="s">
-        <v>854</v>
+        <v>761</v>
       </c>
       <c r="K96" t="s">
-        <v>855</v>
+        <v>762</v>
       </c>
       <c r="L96" t="s">
-        <v>856</v>
+        <v>763</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="O96" t="s">
         <v>52</v>
@@ -9748,54 +9053,50 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>856</v>
+        <v>763</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>58684</v>
       </c>
-      <c r="B97" t="n">
-        <v>137149</v>
-      </c>
-      <c r="C97" t="s">
-        <v>857</v>
-      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F97" t="s">
-        <v>858</v>
+        <v>764</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I97" t="s">
-        <v>859</v>
+        <v>765</v>
       </c>
       <c r="J97" t="s">
-        <v>860</v>
+        <v>766</v>
       </c>
       <c r="K97" t="s">
-        <v>861</v>
+        <v>767</v>
       </c>
       <c r="L97" t="s">
-        <v>862</v>
+        <v>768</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="O97" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9819,51 +9120,47 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>863</v>
+        <v>769</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>58684</v>
       </c>
-      <c r="B98" t="n">
-        <v>5411</v>
-      </c>
-      <c r="C98" t="s">
-        <v>864</v>
-      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>865</v>
+        <v>770</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I98" t="s">
-        <v>866</v>
+        <v>771</v>
       </c>
       <c r="J98" t="s">
-        <v>867</v>
+        <v>772</v>
       </c>
       <c r="K98" t="s">
-        <v>868</v>
+        <v>773</v>
       </c>
       <c r="L98" t="s">
-        <v>869</v>
+        <v>774</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>870</v>
+        <v>775</v>
       </c>
       <c r="O98" t="s">
         <v>52</v>
@@ -9890,54 +9187,50 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>871</v>
+        <v>776</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>58684</v>
       </c>
-      <c r="B99" t="n">
-        <v>137150</v>
-      </c>
-      <c r="C99" t="s">
-        <v>872</v>
-      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>873</v>
+        <v>777</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I99" t="s">
-        <v>874</v>
+        <v>778</v>
       </c>
       <c r="J99" t="s">
-        <v>875</v>
+        <v>779</v>
       </c>
       <c r="K99" t="s">
-        <v>876</v>
+        <v>780</v>
       </c>
       <c r="L99" t="s">
-        <v>877</v>
+        <v>781</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>878</v>
+        <v>782</v>
       </c>
       <c r="O99" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9961,54 +9254,50 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>877</v>
+        <v>781</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>58684</v>
       </c>
-      <c r="B100" t="n">
-        <v>137151</v>
-      </c>
-      <c r="C100" t="s">
-        <v>879</v>
-      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>880</v>
+        <v>783</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I100" t="s">
-        <v>881</v>
+        <v>784</v>
       </c>
       <c r="J100" t="s">
-        <v>882</v>
+        <v>785</v>
       </c>
       <c r="K100" t="s">
-        <v>883</v>
+        <v>786</v>
       </c>
       <c r="L100" t="s">
-        <v>884</v>
+        <v>787</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>878</v>
+        <v>782</v>
       </c>
       <c r="O100" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -10032,54 +9321,50 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>885</v>
+        <v>788</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>58684</v>
       </c>
-      <c r="B101" t="n">
-        <v>18559</v>
-      </c>
-      <c r="C101" t="s">
-        <v>886</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>887</v>
+        <v>789</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I101" t="s">
-        <v>888</v>
+        <v>790</v>
       </c>
       <c r="J101" t="s">
-        <v>889</v>
+        <v>791</v>
       </c>
       <c r="K101" t="s">
-        <v>890</v>
+        <v>792</v>
       </c>
       <c r="L101" t="s">
-        <v>891</v>
+        <v>793</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>892</v>
+        <v>794</v>
       </c>
       <c r="O101" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -10101,45 +9386,41 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>891</v>
+        <v>793</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>58684</v>
       </c>
-      <c r="B102" t="n">
-        <v>137152</v>
-      </c>
-      <c r="C102" t="s">
-        <v>893</v>
-      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>894</v>
+        <v>795</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I102" t="s">
-        <v>895</v>
+        <v>796</v>
       </c>
       <c r="J102" t="s">
-        <v>896</v>
+        <v>797</v>
       </c>
       <c r="K102" t="s">
-        <v>897</v>
+        <v>798</v>
       </c>
       <c r="L102" t="s">
-        <v>898</v>
+        <v>799</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
@@ -10168,51 +9449,47 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>898</v>
+        <v>799</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>58684</v>
       </c>
-      <c r="B103" t="n">
-        <v>137153</v>
-      </c>
-      <c r="C103" t="s">
-        <v>899</v>
-      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I103" t="s">
-        <v>901</v>
+        <v>801</v>
       </c>
       <c r="J103" t="s">
-        <v>902</v>
+        <v>802</v>
       </c>
       <c r="K103" t="s">
-        <v>903</v>
+        <v>803</v>
       </c>
       <c r="L103" t="s">
-        <v>904</v>
+        <v>804</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="O103" t="s">
         <v>52</v>
@@ -10235,54 +9512,50 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>906</v>
+        <v>806</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>58684</v>
       </c>
-      <c r="B104" t="n">
-        <v>137154</v>
-      </c>
-      <c r="C104" t="s">
-        <v>907</v>
-      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>908</v>
+        <v>807</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I104" t="s">
-        <v>909</v>
+        <v>808</v>
       </c>
       <c r="J104" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
       <c r="K104" t="s">
-        <v>911</v>
+        <v>810</v>
       </c>
       <c r="L104" t="s">
-        <v>912</v>
+        <v>811</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>905</v>
+        <v>805</v>
       </c>
       <c r="O104" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -10306,54 +9579,50 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>913</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>58684</v>
       </c>
-      <c r="B105" t="n">
-        <v>137155</v>
-      </c>
-      <c r="C105" t="s">
-        <v>914</v>
-      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>915</v>
+        <v>813</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I105" t="s">
-        <v>916</v>
+        <v>814</v>
       </c>
       <c r="J105" t="s">
-        <v>917</v>
+        <v>815</v>
       </c>
       <c r="K105" t="s">
-        <v>918</v>
+        <v>816</v>
       </c>
       <c r="L105" t="s">
-        <v>919</v>
+        <v>817</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>920</v>
+        <v>818</v>
       </c>
       <c r="O105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -10377,54 +9646,50 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>919</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>58684</v>
       </c>
-      <c r="B106" t="n">
-        <v>137156</v>
-      </c>
-      <c r="C106" t="s">
-        <v>921</v>
-      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>922</v>
+        <v>819</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I106" t="s">
-        <v>923</v>
+        <v>820</v>
       </c>
       <c r="J106" t="s">
-        <v>924</v>
+        <v>821</v>
       </c>
       <c r="K106" t="s">
-        <v>925</v>
+        <v>822</v>
       </c>
       <c r="L106" t="s">
-        <v>926</v>
+        <v>823</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>927</v>
+        <v>824</v>
       </c>
       <c r="O106" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10448,54 +9713,50 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>928</v>
+        <v>825</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>58684</v>
       </c>
-      <c r="B107" t="n">
-        <v>137157</v>
-      </c>
-      <c r="C107" t="s">
-        <v>929</v>
-      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>930</v>
+        <v>826</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I107" t="s">
-        <v>931</v>
+        <v>827</v>
       </c>
       <c r="J107" t="s">
-        <v>932</v>
+        <v>828</v>
       </c>
       <c r="K107" t="s">
-        <v>933</v>
+        <v>829</v>
       </c>
       <c r="L107" t="s">
-        <v>934</v>
+        <v>830</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>927</v>
+        <v>824</v>
       </c>
       <c r="O107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10519,54 +9780,50 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>935</v>
+        <v>831</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>58684</v>
       </c>
-      <c r="B108" t="n">
-        <v>137158</v>
-      </c>
-      <c r="C108" t="s">
-        <v>936</v>
-      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>937</v>
+        <v>832</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I108" t="s">
-        <v>938</v>
+        <v>833</v>
       </c>
       <c r="J108" t="s">
-        <v>939</v>
+        <v>834</v>
       </c>
       <c r="K108" t="s">
-        <v>940</v>
+        <v>835</v>
       </c>
       <c r="L108" t="s">
-        <v>941</v>
+        <v>836</v>
       </c>
       <c r="M108" t="n">
         <v>2</v>
       </c>
       <c r="N108" t="s">
-        <v>942</v>
+        <v>837</v>
       </c>
       <c r="O108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P108" t="n">
         <v>2</v>
@@ -10590,7 +9847,7 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>943</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
